--- a/data/hotels_by_city/Houston/Houston_shard_339.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_339.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d293238-Reviews-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Hotel-Suites-Pearland.h1092923.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1200 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r564950715-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>293238</t>
+  </si>
+  <si>
+    <t>564950715</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Typical HIE but with flaws</t>
+  </si>
+  <si>
+    <t>First of all, the room was clean, comfortable, and I had a great nights sleep.  The staff was friendly, and they offer the typical express breakfast.The main two problems that cause me to downgrade the rating, was a smoke smell and their fitness room.Although the hotel clearly states it is a non-smoking facility, there was a definite smoke aroma near the main entrance, the rear entrance, and in the elevator.I got up early to squeeze in a quick workout, but my room key would not work to access the room. I tried the front desk, but there was no one there. I went back to my room and called the front desk, and I reached someone on the first ring. They explained that they had a problem with the lock on the door and the staff would open it for me. After going back downstairs, I waited another five minutes for someone to show up, and then another few minutes for them to find someone with the correct key. Obviously it never occurred to them to put a sign on the door explaining the process for entry.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>First of all, the room was clean, comfortable, and I had a great nights sleep.  The staff was friendly, and they offer the typical express breakfast.The main two problems that cause me to downgrade the rating, was a smoke smell and their fitness room.Although the hotel clearly states it is a non-smoking facility, there was a definite smoke aroma near the main entrance, the rear entrance, and in the elevator.I got up early to squeeze in a quick workout, but my room key would not work to access the room. I tried the front desk, but there was no one there. I went back to my room and called the front desk, and I reached someone on the first ring. They explained that they had a problem with the lock on the door and the staff would open it for me. After going back downstairs, I waited another five minutes for someone to show up, and then another few minutes for them to find someone with the correct key. Obviously it never occurred to them to put a sign on the door explaining the process for entry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r544378077-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>544378077</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Stayed here overnight before an early morning flight. Close to airport. Room was clean and very comfortable. Did not have a chance to have breakfast as flight was very early. The front desk staff were few and welcoming. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Shelar V, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here overnight before an early morning flight. Close to airport. Room was clean and very comfortable. Did not have a chance to have breakfast as flight was very early. The front desk staff were few and welcoming. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r544333190-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>544333190</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>2 night stay</t>
+  </si>
+  <si>
+    <t>Hotel was nice, room was clean and comfortable, staff was very friendly and helpful, breakfast was plentiful, tasty, good variety. We were here for a wedding, otherwise, not much to do in Pearland unless you're into shopping:  downtown has a huge outdoor mall, lots of restaurants, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Hotel was nice, room was clean and comfortable, staff was very friendly and helpful, breakfast was plentiful, tasty, good variety. We were here for a wedding, otherwise, not much to do in Pearland unless you're into shopping:  downtown has a huge outdoor mall, lots of restaurants, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r462919294-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>462919294</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommend </t>
+  </si>
+  <si>
+    <t>Pleased with our choice to stay at the Holiday Inn in Pearland. The desk staff was professional and efficient. The hotel, hallways, and our room were all very clean. We were pleased with the morning breakfast choices and once again on the notable cleanliness of the food area and dining room.  The beds were extremely comfortable and truly queen-size (not double) beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Pleased with our choice to stay at the Holiday Inn in Pearland. The desk staff was professional and efficient. The hotel, hallways, and our room were all very clean. We were pleased with the morning breakfast choices and once again on the notable cleanliness of the food area and dining room.  The beds were extremely comfortable and truly queen-size (not double) beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r440606540-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>440606540</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Business Emergency Call</t>
+  </si>
+  <si>
+    <t>Unfortunately not a good check in. The person at the desk found that all my points were non existence! The hotel is under construction. Super Bowl is the reason, however, bad quality of construction. Our room was suppose to be finished, but lacked many things.Room was not cool, ac not working properly, exhaust not working properly. The site was a mess and the contractor should be held responsible for the appearance of the hotel for the sake of the guest. Bad superintendent if you ask me. I've been in construction all my life and this place was not appealing to the eye. Holiday Inn needs to hire a project manager to protect their properties.One more thing, it looks like the hotel workers have their families coming in for breakfast!It was very apparent, clear and conspicuous. They held up the line for the hotel guess!I finally was able to get some pancakes!Salvador was the only welcoming and friendly employee that existed in the hotel!A dedicated employee who seems to work double shifts! I hope the Manger realizes his outstanding qualities.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Unfortunately not a good check in. The person at the desk found that all my points were non existence! The hotel is under construction. Super Bowl is the reason, however, bad quality of construction. Our room was suppose to be finished, but lacked many things.Room was not cool, ac not working properly, exhaust not working properly. The site was a mess and the contractor should be held responsible for the appearance of the hotel for the sake of the guest. Bad superintendent if you ask me. I've been in construction all my life and this place was not appealing to the eye. Holiday Inn needs to hire a project manager to protect their properties.One more thing, it looks like the hotel workers have their families coming in for breakfast!It was very apparent, clear and conspicuous. They held up the line for the hotel guess!I finally was able to get some pancakes!Salvador was the only welcoming and friendly employee that existed in the hotel!A dedicated employee who seems to work double shifts! I hope the Manger realizes his outstanding qualities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r413686292-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>413686292</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Relaxing Stay</t>
+  </si>
+  <si>
+    <t>Arrived at 11 PM due to flight delays and front desk veryhelpful as had not had dinner.  Room on 3 rd floor completed. remodeledand bed was great.  Stay 3 nights as visiting for friends 95th birthday.Breakfast in the hotel was good and I didn't have to find a place.Parking was limited due to construction but one new area was notblocked off so used it as did other people.  When I return willstay here again.  The only thing in room that had been redone wasbench for your luggage and from before they remodeled and had several stains. Bathroom also remodeled.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Sheldon G, Manager at Holiday Inn Express Pearland, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Arrived at 11 PM due to flight delays and front desk veryhelpful as had not had dinner.  Room on 3 rd floor completed. remodeledand bed was great.  Stay 3 nights as visiting for friends 95th birthday.Breakfast in the hotel was good and I didn't have to find a place.Parking was limited due to construction but one new area was notblocked off so used it as did other people.  When I return willstay here again.  The only thing in room that had been redone wasbench for your luggage and from before they remodeled and had several stains. Bathroom also remodeled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r399781977-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>399781977</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>3 night family stay</t>
+  </si>
+  <si>
+    <t>They were under construction so the breakfast area was moved to the conference room. It was set up on tables but the layout made it so only 1 person could get to the main meal area at a time (biscuits, gravy, bacon, eggs, etc...). They stayed out of food and all 3 mornings my family had to wait on something. There were suppose to be cookies at the guest check-in and not once was there any there. Pool area appeared very ignored and dirty. There were only 2 tables/chairs. No lounge chairs or towels. Even w/ all that the housekeeping for rooms and front desk hospitality was great. Most concerns were upkeep/amenities MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>They were under construction so the breakfast area was moved to the conference room. It was set up on tables but the layout made it so only 1 person could get to the main meal area at a time (biscuits, gravy, bacon, eggs, etc...). They stayed out of food and all 3 mornings my family had to wait on something. There were suppose to be cookies at the guest check-in and not once was there any there. Pool area appeared very ignored and dirty. There were only 2 tables/chairs. No lounge chairs or towels. Even w/ all that the housekeeping for rooms and front desk hospitality was great. Most concerns were upkeep/amenities More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r394068807-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>394068807</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Will be better after Renovation</t>
+  </si>
+  <si>
+    <t>Location is currently being renovated - didn't affect the room, but lobby is bare and dining room for breakfast was relocated to the meeting room adjacent, which wasn't optimal but breakfast was still on time, so no real problems. Didn't use the pool, so can't review that. Renovations are chiefly for the lobby/dining area, adding extra rooms to the back, and expand the parking lot, which was the biggest issue - it was very small, and on saturday night I got back to the hotel late and had to park on the road next to it as the lot was full, but hopefully with Renovations this will not be an issue. Location is good as it's on Main St, almost right across from Walmart which is handy as there's a minifridge and microwave in the room so you don't have to go out for dinner every day. Jackson at the front desk was very friendly and genial. Right now with renovations it's a bit rough, but things should be much better afterwards.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Location is currently being renovated - didn't affect the room, but lobby is bare and dining room for breakfast was relocated to the meeting room adjacent, which wasn't optimal but breakfast was still on time, so no real problems. Didn't use the pool, so can't review that. Renovations are chiefly for the lobby/dining area, adding extra rooms to the back, and expand the parking lot, which was the biggest issue - it was very small, and on saturday night I got back to the hotel late and had to park on the road next to it as the lot was full, but hopefully with Renovations this will not be an issue. Location is good as it's on Main St, almost right across from Walmart which is handy as there's a minifridge and microwave in the room so you don't have to go out for dinner every day. Jackson at the front desk was very friendly and genial. Right now with renovations it's a bit rough, but things should be much better afterwards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r377924061-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>377924061</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Hopefully will be better after Renovation</t>
+  </si>
+  <si>
+    <t>Front Desk:  OK not super friendly but got the job doneRoom: OK and the AC worked GreatLocation: Great if you are going to fly out of HobbyWorkout Room: Horrible - No AC very cramped only one treadmill some equipment broken.Breakfast: OK Friendly staff.I expect this place to get better but for now I would pass in particular if you want to work out.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Front Desk:  OK not super friendly but got the job doneRoom: OK and the AC worked GreatLocation: Great if you are going to fly out of HobbyWorkout Room: Horrible - No AC very cramped only one treadmill some equipment broken.Breakfast: OK Friendly staff.I expect this place to get better but for now I would pass in particular if you want to work out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r362667164-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>362667164</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>One night stop!</t>
+  </si>
+  <si>
+    <t>The GM was very friendly.  Small area in the business center.  The room was great , Bed was very comfortable. Large room with plenty of space.  Pillows are a plus very soft. Breakfast area very big. The outside lot could use more light. So park close to the front.  The side looks kinda of scary.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The GM was very friendly.  Small area in the business center.  The room was great , Bed was very comfortable. Large room with plenty of space.  Pillows are a plus very soft. Breakfast area very big. The outside lot could use more light. So park close to the front.  The side looks kinda of scary.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r361562136-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>361562136</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Fifteen Bored Minutes and a Contemptuous One</t>
+  </si>
+  <si>
+    <t>Walked into a pretty lobby anticipating getting some R&amp;R. I waited and waited and waited...you get the picture. After a full fifteen minutes a lady peeked around the corner, sighed disgustingly, and actually said, "Yeah, what do you need." I told her I had needed a room, but that since she held such contempt for me that I would go somewhere else. She unfolded her tattooed arms, shrugged her shoulders, and turned her back to me. This was at 2:00 in the afternoon. If you want any semblance of customer service, DO NOT stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Walked into a pretty lobby anticipating getting some R&amp;R. I waited and waited and waited...you get the picture. After a full fifteen minutes a lady peeked around the corner, sighed disgustingly, and actually said, "Yeah, what do you need." I told her I had needed a room, but that since she held such contempt for me that I would go somewhere else. She unfolded her tattooed arms, shrugged her shoulders, and turned her back to me. This was at 2:00 in the afternoon. If you want any semblance of customer service, DO NOT stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r358851707-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>358851707</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Excellent property and will come back again...</t>
+  </si>
+  <si>
+    <t>I saw a 3-star review dated 2 days before this review that highlighted several issues.  My experience was completely opposite.  The staff is amazingly friendly and helpful, and I didn't have any problem whatsoever.
+I spent a night here before departing from Hobby airport the next morning.  The night staff checked us in was super amazingly friendly - I definitely got that warm Texan hospitality.  He was efficient at processing our check-in and offered choice of goody bag or welcome points for my Platinum status. I opted for points because I already have bottled water on me...  As I was walking into my room, I got an email alert from IHG of the points being deposited to my account - now that is someone who is on the top of their game!
+The room is clean, modern and has some nice looking furniture.  The internet was working reliably and fast.  Bathroom is clean and spacious.  While there are some train tracks not too far from the hotel, there was no noise issue whatsoever.  I had a great much-needed sleep before my morning flight.
+Because of the event in Brussels on the prior day, I woke up extra early in anticipation of stricter and more time-consuming airport security process.  I checked out around 6am, before the normal breakfast hours.  The breakfast spread was mostly put out and the attendant was more than happy to allow us to get in early.  She...I saw a 3-star review dated 2 days before this review that highlighted several issues.  My experience was completely opposite.  The staff is amazingly friendly and helpful, and I didn't have any problem whatsoever.I spent a night here before departing from Hobby airport the next morning.  The night staff checked us in was super amazingly friendly - I definitely got that warm Texan hospitality.  He was efficient at processing our check-in and offered choice of goody bag or welcome points for my Platinum status. I opted for points because I already have bottled water on me...  As I was walking into my room, I got an email alert from IHG of the points being deposited to my account - now that is someone who is on the top of their game!The room is clean, modern and has some nice looking furniture.  The internet was working reliably and fast.  Bathroom is clean and spacious.  While there are some train tracks not too far from the hotel, there was no noise issue whatsoever.  I had a great much-needed sleep before my morning flight.Because of the event in Brussels on the prior day, I woke up extra early in anticipation of stricter and more time-consuming airport security process.  I checked out around 6am, before the normal breakfast hours.  The breakfast spread was mostly put out and the attendant was more than happy to allow us to get in early.  She gave us bags to take a couple of items to go...all without a fuss but a gracious welcome.All in all, this is a very nice property and I couldn't find any fault even if I wanted to.  I will definitely be back next time my business travel takes me to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I saw a 3-star review dated 2 days before this review that highlighted several issues.  My experience was completely opposite.  The staff is amazingly friendly and helpful, and I didn't have any problem whatsoever.
+I spent a night here before departing from Hobby airport the next morning.  The night staff checked us in was super amazingly friendly - I definitely got that warm Texan hospitality.  He was efficient at processing our check-in and offered choice of goody bag or welcome points for my Platinum status. I opted for points because I already have bottled water on me...  As I was walking into my room, I got an email alert from IHG of the points being deposited to my account - now that is someone who is on the top of their game!
+The room is clean, modern and has some nice looking furniture.  The internet was working reliably and fast.  Bathroom is clean and spacious.  While there are some train tracks not too far from the hotel, there was no noise issue whatsoever.  I had a great much-needed sleep before my morning flight.
+Because of the event in Brussels on the prior day, I woke up extra early in anticipation of stricter and more time-consuming airport security process.  I checked out around 6am, before the normal breakfast hours.  The breakfast spread was mostly put out and the attendant was more than happy to allow us to get in early.  She...I saw a 3-star review dated 2 days before this review that highlighted several issues.  My experience was completely opposite.  The staff is amazingly friendly and helpful, and I didn't have any problem whatsoever.I spent a night here before departing from Hobby airport the next morning.  The night staff checked us in was super amazingly friendly - I definitely got that warm Texan hospitality.  He was efficient at processing our check-in and offered choice of goody bag or welcome points for my Platinum status. I opted for points because I already have bottled water on me...  As I was walking into my room, I got an email alert from IHG of the points being deposited to my account - now that is someone who is on the top of their game!The room is clean, modern and has some nice looking furniture.  The internet was working reliably and fast.  Bathroom is clean and spacious.  While there are some train tracks not too far from the hotel, there was no noise issue whatsoever.  I had a great much-needed sleep before my morning flight.Because of the event in Brussels on the prior day, I woke up extra early in anticipation of stricter and more time-consuming airport security process.  I checked out around 6am, before the normal breakfast hours.  The breakfast spread was mostly put out and the attendant was more than happy to allow us to get in early.  She gave us bags to take a couple of items to go...all without a fuss but a gracious welcome.All in all, this is a very nice property and I couldn't find any fault even if I wanted to.  I will definitely be back next time my business travel takes me to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r328902497-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>328902497</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Amazing night staff and great hotel</t>
+  </si>
+  <si>
+    <t>Well I was here for business and there was a problem at check-in (my Side) but they (Salvador) had a solution and everything worked out. the breakfast was more than expected, the rooms are clean and A/C and heater work well. Some of the other people here are rude but the staff makes up for it. Salvador is the one who really stuck out to me. He really went out of his way to help not only me but other guests as well. I am not a very big fan of hotels and because of my line of work I am very critical of hotels but I cant say anything bad about this one and I would recommend it to any one who needs to stay in the area and tell my company that when they send us I would prefer to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Well I was here for business and there was a problem at check-in (my Side) but they (Salvador) had a solution and everything worked out. the breakfast was more than expected, the rooms are clean and A/C and heater work well. Some of the other people here are rude but the staff makes up for it. Salvador is the one who really stuck out to me. He really went out of his way to help not only me but other guests as well. I am not a very big fan of hotels and because of my line of work I am very critical of hotels but I cant say anything bad about this one and I would recommend it to any one who needs to stay in the area and tell my company that when they send us I would prefer to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r322211120-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>322211120</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t>Customer Service needs inprovement. Front desk not very friendly. The breakfast was surprisingly good! The attendant was courteous and kept restocking and cleaning.  My bed was so very comfortable and it was quiet allllllllll night long!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Customer Service needs inprovement. Front desk not very friendly. The breakfast was surprisingly good! The attendant was courteous and kept restocking and cleaning.  My bed was so very comfortable and it was quiet allllllllll night long!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r320078370-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>320078370</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Always a great stay</t>
+  </si>
+  <si>
+    <t>Hotel &amp; staff members are always very nice. Fair rates, nice rooms, although they could use some updating, power outlets excetera new mattresses would be nice. But for all around nice, clean, and people that make you feel welcome, its consistant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sheldon G, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Hotel &amp; staff members are always very nice. Fair rates, nice rooms, although they could use some updating, power outlets excetera new mattresses would be nice. But for all around nice, clean, and people that make you feel welcome, its consistant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r274553189-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>274553189</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>One of my best stays</t>
+  </si>
+  <si>
+    <t>Combination of great service, large variety of breakfast, good location, decent pool and superior rooms. The people at the lobby are easily approachable for information. Ideal place to stay if you visiting South Houston/Galveston. The best of all is free Wi-Fi that is never interrupted.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Combination of great service, large variety of breakfast, good location, decent pool and superior rooms. The people at the lobby are easily approachable for information. Ideal place to stay if you visiting South Houston/Galveston. The best of all is free Wi-Fi that is never interrupted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r262370495-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>262370495</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>I really wanted to say nice things, but...</t>
+  </si>
+  <si>
+    <t>It was just okay at best. I'm always skeptical when people say that rooms are loud; this room was loud. I could here the people in the bathroom next to us just like they were in the same room. The lobby, room, and bath were clean, but showing some age - especially in the bathroom. The beds didn't seems to be quiet as comfortable as most Holiday Inns that we visit.Oddly enough, the highlight was actually the free breakfast. The lady overseeing the breakfast did a great job. And the guest that gave me a beer in the elevator - that was nice too!Overall, I wouldn't hesitate to stay again if I was in the area, but I have to admit that I was a little disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2015</t>
+  </si>
+  <si>
+    <t>It was just okay at best. I'm always skeptical when people say that rooms are loud; this room was loud. I could here the people in the bathroom next to us just like they were in the same room. The lobby, room, and bath were clean, but showing some age - especially in the bathroom. The beds didn't seems to be quiet as comfortable as most Holiday Inns that we visit.Oddly enough, the highlight was actually the free breakfast. The lady overseeing the breakfast did a great job. And the guest that gave me a beer in the elevator - that was nice too!Overall, I wouldn't hesitate to stay again if I was in the area, but I have to admit that I was a little disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r262077510-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>262077510</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Great location, close to Hobby</t>
+  </si>
+  <si>
+    <t>Very nice hotel, quiet, nice freindly staff. I stayed there in Januarary of this year and to my surprise, when i walked in, the gentleman that checked me in before recognized me. I must say, i was impressed. If you're flying out of Hobby, its an easy 6 mile drive to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice hotel, quiet, nice freindly staff. I stayed there in Januarary of this year and to my surprise, when i walked in, the gentleman that checked me in before recognized me. I must say, i was impressed. If you're flying out of Hobby, its an easy 6 mile drive to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r256448963-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>256448963</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Safety Concern</t>
+  </si>
+  <si>
+    <t>The hotel was fine, but both safety latches on the door were broken.  The top latch had obviously been forced open and was broken off.  The latch on the door handle that served as a deadbolt would not set.  Thus both safety measures were useless.  I was a woman traveling alone and was counting on the safety measures to be in place.  As the pamphlet in the room advises, it is important to set both latches.  I contacted the front desk.  The clerk was sympathetic but said the hotel was full so I had no option but to stay in the room.  She said she would inform the manager in the morning and recommend I should be compensated.  I spoke to the manager the next morning. He was not concerned and said he would notify maintenance .  I certainly think that the hotel should have had a solution to the situation such as a door bar or  had maintenance replace the latch immediately.  The manager's lack of concern and professionalism is not a good reflection on Holiday Inn Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded March 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was fine, but both safety latches on the door were broken.  The top latch had obviously been forced open and was broken off.  The latch on the door handle that served as a deadbolt would not set.  Thus both safety measures were useless.  I was a woman traveling alone and was counting on the safety measures to be in place.  As the pamphlet in the room advises, it is important to set both latches.  I contacted the front desk.  The clerk was sympathetic but said the hotel was full so I had no option but to stay in the room.  She said she would inform the manager in the morning and recommend I should be compensated.  I spoke to the manager the next morning. He was not concerned and said he would notify maintenance .  I certainly think that the hotel should have had a solution to the situation such as a door bar or  had maintenance replace the latch immediately.  The manager's lack of concern and professionalism is not a good reflection on Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r249784713-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>249784713</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>Great customer service, thin walls</t>
+  </si>
+  <si>
+    <t>My daughter had to be at an event early in the morning so the mananager offered to get the breakfast servers in  early just for us.  The only problem is that it is close to sporting venues so attracts a lot of very loud youth teams and the walls are very thin.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>My daughter had to be at an event early in the morning so the mananager offered to get the breakfast servers in  early just for us.  The only problem is that it is close to sporting venues so attracts a lot of very loud youth teams and the walls are very thin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r242183947-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>242183947</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel very good rates.</t>
+  </si>
+  <si>
+    <t>Picked this hotel because it is a preferred hotel through my employer. Very nice hotel, clean rooms, nice staff. My only complaint is that it is a little inconvenient to get to the shopping and restaurants due to the lay out of the service roads. Great rates, I never noticed, nor was bothered by railroad tracks as mentioned in another review. I guess next time I am there, I will ask the staff if it makes a difference about where the room is located.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Picked this hotel because it is a preferred hotel through my employer. Very nice hotel, clean rooms, nice staff. My only complaint is that it is a little inconvenient to get to the shopping and restaurants due to the lay out of the service roads. Great rates, I never noticed, nor was bothered by railroad tracks as mentioned in another review. I guess next time I am there, I will ask the staff if it makes a difference about where the room is located.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r236941302-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>236941302</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Comfortable</t>
+  </si>
+  <si>
+    <t>I stayed here when I was in town for business and it was a great choice! The room was clean and very, very quiet! I was up late working and never heard anyone in the hall, in the rooms next to me or above me. I LOVE a quiet room! The bed was comfortable and I got a great night's sleep. I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here when I was in town for business and it was a great choice! The room was clean and very, very quiet! I was up late working and never heard anyone in the hall, in the rooms next to me or above me. I LOVE a quiet room! The bed was comfortable and I got a great night's sleep. I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r216818084-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>216818084</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Great Value Hotel</t>
+  </si>
+  <si>
+    <t>This HIX is exactly how you expect one to be.  It was clean and spaciously accommodated.  The breakfast was typical HIX and was well tended to by the staff.  The pool area was nice (outdoors).  The price was also reasonable.  If you need a room in the Pearland area, this is definitely the place to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded August 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2014</t>
+  </si>
+  <si>
+    <t>This HIX is exactly how you expect one to be.  It was clean and spaciously accommodated.  The breakfast was typical HIX and was well tended to by the staff.  The pool area was nice (outdoors).  The price was also reasonable.  If you need a room in the Pearland area, this is definitely the place to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r213395097-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>213395097</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Dissapointed</t>
+  </si>
+  <si>
+    <t>Let me start by saying that I do not like to use a credit card when checking into a hotel.  I personally only like to use credit cards when there is an emergency.  Since this is a personal preference of mine, I always call the hotels that I want to book before I even make reservations to ensure that the hotel accepts cash as payment with a cash deposit when I check in.  In this case, I called a month ahead of time to ensure that this hotel would accommodate this preference and I was ensured that they would take cash as payment with a required deposit at check in.  With this information, I booked the hotel online.  I booked a total of four days, but the reservation had to be broken into two separate reservations due to the fact that we were going to San Antonio for two days in the middle of our reservation.  
+Now fast forward to check-in at the hotel:  When we went to the front desk for check in we were told that they do not accept cash as payments without using a credit card for a hold to placed on. I was told this information as I read a sign posted at the front desk that said "Notice to all guests paying with cash: A deposit is required at check-in."  I pointed this sign out the receptionist and she stated that the hotel was...Let me start by saying that I do not like to use a credit card when checking into a hotel.  I personally only like to use credit cards when there is an emergency.  Since this is a personal preference of mine, I always call the hotels that I want to book before I even make reservations to ensure that the hotel accepts cash as payment with a cash deposit when I check in.  In this case, I called a month ahead of time to ensure that this hotel would accommodate this preference and I was ensured that they would take cash as payment with a required deposit at check in.  With this information, I booked the hotel online.  I booked a total of four days, but the reservation had to be broken into two separate reservations due to the fact that we were going to San Antonio for two days in the middle of our reservation.  Now fast forward to check-in at the hotel:  When we went to the front desk for check in we were told that they do not accept cash as payments without using a credit card for a hold to placed on. I was told this information as I read a sign posted at the front desk that said "Notice to all guests paying with cash: A deposit is required at check-in."  I pointed this sign out the receptionist and she stated that the hotel was "under new owners" and that they no longer allowed customers to check in without using a credit card that would put a hold on your credit card for 7 to 10 days.  I told the receptionist that I called in advance about paying cash with a deposit.  With that information, she went to the manager and he stated that we would have to use a credit card, but he could put just first two of the days on our credit card instead of all four nights, which would allow our credit card to not have two holds on it. .  Due to being on the road all day and my children wanting to get out of the car, I conceded.  I was told that there would be a note attached to our reservation that would alert the receptionist to not charge our account twice when we checked back in.  Once it was time to check out before heading to San Antonio, my husband asked the receptionist if there was a note attached to our account and the receptionist stated that she didn't have a clue as to what he was talking about.  We had to wait approximately 30 minutes to start our drive to San Antonio while she got ahold of the manager to figure out how to ensure that we would not be charged two holds to our credit card.  It was finally figured out and we were on our way to San Antonio.  When we came back from San Antonio, check out was a fast.  We were checked into a different room from the first room and we woke up to the floor near the air conditioner soaking wet.  Our daughters luggage was on that side of room and all of her clothes were wet.  We alerted the desk and we were told that they would send a maintenance person to our room to see if it could be fixed.  We were told that it could be fixed, but it would take a little while and that it could be repaired while we went to do some things outside of the hotel.  I was shocked that they would not just offer us a new room instead of inconveniencing us and being in our room with all of our personal items without us being there.  I actually had to ask if we could simply be moved to another room.  They finally allowed us to move rooms.  I know that this is a lot of info, so let me get to other pros and cons:PROS:1.  The beds were comfortable2.  There were pillows that were both soft and firm3.  The rooms were somewhat spacious.4.  There was a nice dining area that our family was able to enjoy our meals at.CONS:1.  There was a lot of water damage to the ceilings2.  There was a charge for the washers and dryers (both were rather old), we had to use the washer and dryer due to our daughters clothes getting soaked from the leaky AC unit.  3.  Wi-Fi was rather slow.4.  The pancake maker was broken for our entire stay.Again, sorry for the long review.  I have written quite a few reviews in my life, however this is by far the longest.  The lack of customer service and the fact that the hotel did not stand by their previous statements and signage posted at the lobby concerning cash payments was very upsetting.  My family will not be staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Let me start by saying that I do not like to use a credit card when checking into a hotel.  I personally only like to use credit cards when there is an emergency.  Since this is a personal preference of mine, I always call the hotels that I want to book before I even make reservations to ensure that the hotel accepts cash as payment with a cash deposit when I check in.  In this case, I called a month ahead of time to ensure that this hotel would accommodate this preference and I was ensured that they would take cash as payment with a required deposit at check in.  With this information, I booked the hotel online.  I booked a total of four days, but the reservation had to be broken into two separate reservations due to the fact that we were going to San Antonio for two days in the middle of our reservation.  
+Now fast forward to check-in at the hotel:  When we went to the front desk for check in we were told that they do not accept cash as payments without using a credit card for a hold to placed on. I was told this information as I read a sign posted at the front desk that said "Notice to all guests paying with cash: A deposit is required at check-in."  I pointed this sign out the receptionist and she stated that the hotel was...Let me start by saying that I do not like to use a credit card when checking into a hotel.  I personally only like to use credit cards when there is an emergency.  Since this is a personal preference of mine, I always call the hotels that I want to book before I even make reservations to ensure that the hotel accepts cash as payment with a cash deposit when I check in.  In this case, I called a month ahead of time to ensure that this hotel would accommodate this preference and I was ensured that they would take cash as payment with a required deposit at check in.  With this information, I booked the hotel online.  I booked a total of four days, but the reservation had to be broken into two separate reservations due to the fact that we were going to San Antonio for two days in the middle of our reservation.  Now fast forward to check-in at the hotel:  When we went to the front desk for check in we were told that they do not accept cash as payments without using a credit card for a hold to placed on. I was told this information as I read a sign posted at the front desk that said "Notice to all guests paying with cash: A deposit is required at check-in."  I pointed this sign out the receptionist and she stated that the hotel was "under new owners" and that they no longer allowed customers to check in without using a credit card that would put a hold on your credit card for 7 to 10 days.  I told the receptionist that I called in advance about paying cash with a deposit.  With that information, she went to the manager and he stated that we would have to use a credit card, but he could put just first two of the days on our credit card instead of all four nights, which would allow our credit card to not have two holds on it. .  Due to being on the road all day and my children wanting to get out of the car, I conceded.  I was told that there would be a note attached to our reservation that would alert the receptionist to not charge our account twice when we checked back in.  Once it was time to check out before heading to San Antonio, my husband asked the receptionist if there was a note attached to our account and the receptionist stated that she didn't have a clue as to what he was talking about.  We had to wait approximately 30 minutes to start our drive to San Antonio while she got ahold of the manager to figure out how to ensure that we would not be charged two holds to our credit card.  It was finally figured out and we were on our way to San Antonio.  When we came back from San Antonio, check out was a fast.  We were checked into a different room from the first room and we woke up to the floor near the air conditioner soaking wet.  Our daughters luggage was on that side of room and all of her clothes were wet.  We alerted the desk and we were told that they would send a maintenance person to our room to see if it could be fixed.  We were told that it could be fixed, but it would take a little while and that it could be repaired while we went to do some things outside of the hotel.  I was shocked that they would not just offer us a new room instead of inconveniencing us and being in our room with all of our personal items without us being there.  I actually had to ask if we could simply be moved to another room.  They finally allowed us to move rooms.  I know that this is a lot of info, so let me get to other pros and cons:PROS:1.  The beds were comfortable2.  There were pillows that were both soft and firm3.  The rooms were somewhat spacious.4.  There was a nice dining area that our family was able to enjoy our meals at.CONS:1.  There was a lot of water damage to the ceilings2.  There was a charge for the washers and dryers (both were rather old), we had to use the washer and dryer due to our daughters clothes getting soaked from the leaky AC unit.  3.  Wi-Fi was rather slow.4.  The pancake maker was broken for our entire stay.Again, sorry for the long review.  I have written quite a few reviews in my life, however this is by far the longest.  The lack of customer service and the fact that the hotel did not stand by their previous statements and signage posted at the lobby concerning cash payments was very upsetting.  My family will not be staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r199856831-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>199856831</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Good Visit</t>
+  </si>
+  <si>
+    <t>Enjoyed visit with the hotel during spring break and visiting family.  The area is ok just would have been nice if there was more restaurants nearby.  Staff was nice and very helpful when enough towels was not left in our room after they cleaned it.  I was also impressed with the cleaning staff, this was the first time i stayed in a hotel for a few nights and the housekeeping staff really cleaned the rooms it was not a hit and miss but they really cleaned the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Enjoyed visit with the hotel during spring break and visiting family.  The area is ok just would have been nice if there was more restaurants nearby.  Staff was nice and very helpful when enough towels was not left in our room after they cleaned it.  I was also impressed with the cleaning staff, this was the first time i stayed in a hotel for a few nights and the housekeeping staff really cleaned the rooms it was not a hit and miss but they really cleaned the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r199585311-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>199585311</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Visit to children</t>
+  </si>
+  <si>
+    <t>The property is a straight shot from airport (about 8 miles from Hobby).  Well maintained and a great staff.  Nice free breakfast.  Pool area and hot tub are clean and well maintained.  Not many eateries near-by but we were there to visit family and they steered us to the local places.  Our grandkids stayed with us and the staff were so welcoming to them.....thanksMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>The property is a straight shot from airport (about 8 miles from Hobby).  Well maintained and a great staff.  Nice free breakfast.  Pool area and hot tub are clean and well maintained.  Not many eateries near-by but we were there to visit family and they steered us to the local places.  Our grandkids stayed with us and the staff were so welcoming to them.....thanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r192622297-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>192622297</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>Typical HIE with nice staff</t>
+  </si>
+  <si>
+    <t>Very nice HIE hotel.  The staff was friendly and accommodating.  It is not as close to Hobby as I thought it was and the morning traffic to get to Hobby took more than 20 minutes, just leave yourself enough time.  I thought the fish tank in the lobby was a very nice touch.  Breakfast staff in the AM was very pleasant.    MoreShow less</t>
+  </si>
+  <si>
+    <t>Kim V, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded February 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2014</t>
+  </si>
+  <si>
+    <t>Very nice HIE hotel.  The staff was friendly and accommodating.  It is not as close to Hobby as I thought it was and the morning traffic to get to Hobby took more than 20 minutes, just leave yourself enough time.  I thought the fish tank in the lobby was a very nice touch.  Breakfast staff in the AM was very pleasant.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r169517020-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>169517020</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Decent Accommodations but VERY Noisy!</t>
+  </si>
+  <si>
+    <t>This was not my first visit to this particular Holiday Inn Express. I was here about two years ago, and had a very pleasant stay that time. This time was not as great. Let me start with the good:
+The front desk staff was extremely friendly. They did everything they possibly could to make the stay enjoyable, but there were things outside of their control. The bed was nice and comfortable, and once I fell asleep, I stayed asleep. There was also a decent amount of television stations to watch. The pool was a nice size when it wasn't occupied by dozens of young, unsupervised teenagers. And, there is a live turtle pond in front of the hotel, which was a nice diversion. I watched the turtles several times on my two-night trip.
+The bad:
+I should have called ahead to see if there were any large groups staying at this hotel. Pearland is a city that has grown immensely, but the number of hotels has not kept up with the growth rate of the city. On this side of town, Holiday Inn Express and Best Western were the only options. This hotel was overrun by young teen girls' soccer teams. Apparently there was a tournament in the area and girls from all over southern Texas were staying here.
+The combination of teenage girls and VERY thin walls was not a good one. In this hotel, you can hear every...This was not my first visit to this particular Holiday Inn Express. I was here about two years ago, and had a very pleasant stay that time. This time was not as great. Let me start with the good:The front desk staff was extremely friendly. They did everything they possibly could to make the stay enjoyable, but there were things outside of their control. The bed was nice and comfortable, and once I fell asleep, I stayed asleep. There was also a decent amount of television stations to watch. The pool was a nice size when it wasn't occupied by dozens of young, unsupervised teenagers. And, there is a live turtle pond in front of the hotel, which was a nice diversion. I watched the turtles several times on my two-night trip.The bad:I should have called ahead to see if there were any large groups staying at this hotel. Pearland is a city that has grown immensely, but the number of hotels has not kept up with the growth rate of the city. On this side of town, Holiday Inn Express and Best Western were the only options. This hotel was overrun by young teen girls' soccer teams. Apparently there was a tournament in the area and girls from all over southern Texas were staying here.The combination of teenage girls and VERY thin walls was not a good one. In this hotel, you can hear every word that is said in the hallway. You can hear everything that goes on in the bathroom next door (there was man singing/rapping obscene lyrics while in the shower next door). You can hear every step that is taken on the floor above. I usually request a top floor room, but I neglected to do that on this occasion. I did walk up to the third floor to see if anybody was stomping down the hallway, as it was 10:30 pm and all I heard above me were footsteps. As I walked through the 3rd floor hallway, I noticed this was also the smoking section of the hotel. I am glad that I did not get a room on that floor, as the entire hallway smelled smoky.It literally sounded as though people were jumping off the beds above us until about 11:30 at night, and then, peace and quiet.I am not really a big fan of any hotel breakfast, but I do try to give it a shot when I am there. This particular breakfast has omelettes, bacon or sausage, biscuits with sausage gravy, a pancake machine (which I like better than the waffle machines), various pastries, yogurt, and oatmeal. Nothing too fancy, but a decent breakfast to start the day. However, with about 30 girls huddled around the breakfast bar, I decided it wasn't worth the fight. I grabbed a banana and went to my room to eat.Of course the front desk cannot manage all of the guests in the hotels--that should be the job of the chaperones, who obviously did not take the responsibility to keep the teenagers in check. The front desk clerk even said that they found a broken chair floating in the pool!Will I stay here again? Probably not. The room was extremely overpriced for what I typically receive at a Holiday Inn Express. Despite the excellent customer service, I would prefer to stay in a more peaceful hotel...one where I don't hear every door slamming, every footstep, and every sound permeating from the neighbor's bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>This was not my first visit to this particular Holiday Inn Express. I was here about two years ago, and had a very pleasant stay that time. This time was not as great. Let me start with the good:
+The front desk staff was extremely friendly. They did everything they possibly could to make the stay enjoyable, but there were things outside of their control. The bed was nice and comfortable, and once I fell asleep, I stayed asleep. There was also a decent amount of television stations to watch. The pool was a nice size when it wasn't occupied by dozens of young, unsupervised teenagers. And, there is a live turtle pond in front of the hotel, which was a nice diversion. I watched the turtles several times on my two-night trip.
+The bad:
+I should have called ahead to see if there were any large groups staying at this hotel. Pearland is a city that has grown immensely, but the number of hotels has not kept up with the growth rate of the city. On this side of town, Holiday Inn Express and Best Western were the only options. This hotel was overrun by young teen girls' soccer teams. Apparently there was a tournament in the area and girls from all over southern Texas were staying here.
+The combination of teenage girls and VERY thin walls was not a good one. In this hotel, you can hear every...This was not my first visit to this particular Holiday Inn Express. I was here about two years ago, and had a very pleasant stay that time. This time was not as great. Let me start with the good:The front desk staff was extremely friendly. They did everything they possibly could to make the stay enjoyable, but there were things outside of their control. The bed was nice and comfortable, and once I fell asleep, I stayed asleep. There was also a decent amount of television stations to watch. The pool was a nice size when it wasn't occupied by dozens of young, unsupervised teenagers. And, there is a live turtle pond in front of the hotel, which was a nice diversion. I watched the turtles several times on my two-night trip.The bad:I should have called ahead to see if there were any large groups staying at this hotel. Pearland is a city that has grown immensely, but the number of hotels has not kept up with the growth rate of the city. On this side of town, Holiday Inn Express and Best Western were the only options. This hotel was overrun by young teen girls' soccer teams. Apparently there was a tournament in the area and girls from all over southern Texas were staying here.The combination of teenage girls and VERY thin walls was not a good one. In this hotel, you can hear every word that is said in the hallway. You can hear everything that goes on in the bathroom next door (there was man singing/rapping obscene lyrics while in the shower next door). You can hear every step that is taken on the floor above. I usually request a top floor room, but I neglected to do that on this occasion. I did walk up to the third floor to see if anybody was stomping down the hallway, as it was 10:30 pm and all I heard above me were footsteps. As I walked through the 3rd floor hallway, I noticed this was also the smoking section of the hotel. I am glad that I did not get a room on that floor, as the entire hallway smelled smoky.It literally sounded as though people were jumping off the beds above us until about 11:30 at night, and then, peace and quiet.I am not really a big fan of any hotel breakfast, but I do try to give it a shot when I am there. This particular breakfast has omelettes, bacon or sausage, biscuits with sausage gravy, a pancake machine (which I like better than the waffle machines), various pastries, yogurt, and oatmeal. Nothing too fancy, but a decent breakfast to start the day. However, with about 30 girls huddled around the breakfast bar, I decided it wasn't worth the fight. I grabbed a banana and went to my room to eat.Of course the front desk cannot manage all of the guests in the hotels--that should be the job of the chaperones, who obviously did not take the responsibility to keep the teenagers in check. The front desk clerk even said that they found a broken chair floating in the pool!Will I stay here again? Probably not. The room was extremely overpriced for what I typically receive at a Holiday Inn Express. Despite the excellent customer service, I would prefer to stay in a more peaceful hotel...one where I don't hear every door slamming, every footstep, and every sound permeating from the neighbor's bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r167738775-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>167738775</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Great surprise after a long day!</t>
+  </si>
+  <si>
+    <t>After encountering limited hotel availability in Houston, I found this little gem!  This really wasn't far from Houston (about 8 mins to the medical center).  Everything was clean and well appointed.  The staff was very friendly and breakfast was great. I have nothing but great things to say and will definitely stay here again rather than in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kim V, Manager at Holiday Inn Express Pearland, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2014</t>
+  </si>
+  <si>
+    <t>After encountering limited hotel availability in Houston, I found this little gem!  This really wasn't far from Houston (about 8 mins to the medical center).  Everything was clean and well appointed.  The staff was very friendly and breakfast was great. I have nothing but great things to say and will definitely stay here again rather than in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r166799448-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>166799448</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Good value for the money</t>
+  </si>
+  <si>
+    <t>Stayed there on business for a couple of nights.  Got a corporate rate of $84.  The hotel staff was very friendly.  Three people in my group all had issues with hot water.  You had to know the "trick" to get hot water in the shower.  It was plumed backwards, but simply turning the handle the other way was not sufficient.  You had to turn the handle to hot (but on the cold side) then pull to turn on...  The lady at the front desk made it sound like this was a common problem and she knew exactly what I was talking about.The hotel was clean and well kept.  The pool area looked nice, however I did not go outside to visit the area.  My room was clean and nice.  The temperature never got below 73 degrees, though I set it for much lower.  Breakfast was just ok.  Had the usual assortment of cereals, bagels, bisquets.  The eggs were very strange looking, I did hear that the waffels were good.  There was plenty to choose from with each selection, just the basics...For the price it was a good selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Stayed there on business for a couple of nights.  Got a corporate rate of $84.  The hotel staff was very friendly.  Three people in my group all had issues with hot water.  You had to know the "trick" to get hot water in the shower.  It was plumed backwards, but simply turning the handle the other way was not sufficient.  You had to turn the handle to hot (but on the cold side) then pull to turn on...  The lady at the front desk made it sound like this was a common problem and she knew exactly what I was talking about.The hotel was clean and well kept.  The pool area looked nice, however I did not go outside to visit the area.  My room was clean and nice.  The temperature never got below 73 degrees, though I set it for much lower.  Breakfast was just ok.  Had the usual assortment of cereals, bagels, bisquets.  The eggs were very strange looking, I did hear that the waffels were good.  There was plenty to choose from with each selection, just the basics...For the price it was a good selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r162546057-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>162546057</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Wow what a Hotel!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff members and managment. Ashley Mendoza when above and beyond her duties to make sure my family and I were well taking care of. Hotel rooms were clean and very spacious. Everytime something was need the staff was more than happy to help.And the breakfast excellent choices for kids. Our stay couldnt have been any better thank you Holiday Inn and Suties Pearland cant wait to vist again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff members and managment. Ashley Mendoza when above and beyond her duties to make sure my family and I were well taking care of. Hotel rooms were clean and very spacious. Everytime something was need the staff was more than happy to help.And the breakfast excellent choices for kids. Our stay couldnt have been any better thank you Holiday Inn and Suties Pearland cant wait to vist again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r162222148-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>162222148</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Fix It</t>
+  </si>
+  <si>
+    <t>The motto of this hotel appears to be, "If its broke, don't bother to fix it" Stayed twice for location convienience. The staff were friendly but seemed shocked when I asked for my laundry to be done (using the laundry bags and tickets from the room) Laundry then took 3 days plus to get back on more than one occasion. Varying reasons given, although I suspect that it was left in the back office for two days before being actioned, I would then have to chase it up twice a day to get it done.     The first time I visited the ice machine and running machine was out of order. The second time I visted a couple of months later, still out of order. Pool out of action and dirty.There is also a dirty pool in front of the hotel, with rubbish and tortoises in it.Rooms were fine and cleaned ok.Average accomodation, for business use. Dont go on Holiday here!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded June 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2013</t>
+  </si>
+  <si>
+    <t>The motto of this hotel appears to be, "If its broke, don't bother to fix it" Stayed twice for location convienience. The staff were friendly but seemed shocked when I asked for my laundry to be done (using the laundry bags and tickets from the room) Laundry then took 3 days plus to get back on more than one occasion. Varying reasons given, although I suspect that it was left in the back office for two days before being actioned, I would then have to chase it up twice a day to get it done.     The first time I visited the ice machine and running machine was out of order. The second time I visted a couple of months later, still out of order. Pool out of action and dirty.There is also a dirty pool in front of the hotel, with rubbish and tortoises in it.Rooms were fine and cleaned ok.Average accomodation, for business use. Dont go on Holiday here!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r158016888-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>158016888</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Good for a night</t>
+  </si>
+  <si>
+    <t>Stayed only for one night in this hotel. The room was clean and nice, no compaints there. I was on the ground floor and the noise of others coming in and going out through the side entrance was a bit loud in the room, but I could sleep well.The staff is nice and helpful.The hotel is about 25 mins drive from Houston downtown. There is nothing nearby, and unfortunately no bar in the hotel either.Therefore 130$(inc. tax) is a bit high for it in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed only for one night in this hotel. The room was clean and nice, no compaints there. I was on the ground floor and the noise of others coming in and going out through the side entrance was a bit loud in the room, but I could sleep well.The staff is nice and helpful.The hotel is about 25 mins drive from Houston downtown. There is nothing nearby, and unfortunately no bar in the hotel either.Therefore 130$(inc. tax) is a bit high for it in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r150176770-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>150176770</t>
+  </si>
+  <si>
+    <t>01/21/2013</t>
+  </si>
+  <si>
+    <t>quiet place to overnight</t>
+  </si>
+  <si>
+    <t>if u are passing thru texas this property is a quiet place to overnight, there are restaurants nearby and a walmart nearby, the hotel is decent, small , clean and wifi works well. breakfast is good.there is a gym for those who like to sweat it out and a spa. parking is easy since its a small property. also nearby are movie theaters and chinese delivery is available.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>if u are passing thru texas this property is a quiet place to overnight, there are restaurants nearby and a walmart nearby, the hotel is decent, small , clean and wifi works well. breakfast is good.there is a gym for those who like to sweat it out and a spa. parking is easy since its a small property. also nearby are movie theaters and chinese delivery is available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r146341820-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>146341820</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Safe location, Room was great size and very comfortable.  Staff was very friendly (Ashley) definitely will stay here again.  We were here on business. Very close to job. Turtle pond was coolWe used our reward points to stay here.  Was very pleased with our choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Safe location, Room was great size and very comfortable.  Staff was very friendly (Ashley) definitely will stay here again.  We were here on business. Very close to job. Turtle pond was coolWe used our reward points to stay here.  Was very pleased with our choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r137828860-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>137828860</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Recommend and will Stay Again!</t>
+  </si>
+  <si>
+    <t>I grew up in Houston and Pearland was just a nice little suburb down the road 30 years ago. WOW, what a difference a few decades make! We stayed at this very nice property overnight after attending a family gathering nearby. The rates were very comparable to other higher level hotels and we were very pleased with our accomodations. The rooms were clean, comfortable, tastefully decorated and the A/C was bone chilling cold. I loved that after a day and evening of sweating in the Houston humidity. The check in was seamless, the clerk friendly and patient, and every staff member we met in the hall greeted us warmly. 4 stars for HIE Pearland Tx!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I grew up in Houston and Pearland was just a nice little suburb down the road 30 years ago. WOW, what a difference a few decades make! We stayed at this very nice property overnight after attending a family gathering nearby. The rates were very comparable to other higher level hotels and we were very pleased with our accomodations. The rooms were clean, comfortable, tastefully decorated and the A/C was bone chilling cold. I loved that after a day and evening of sweating in the Houston humidity. The check in was seamless, the clerk friendly and patient, and every staff member we met in the hall greeted us warmly. 4 stars for HIE Pearland Tx!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r128665388-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>128665388</t>
+  </si>
+  <si>
+    <t>04/26/2012</t>
+  </si>
+  <si>
+    <t>Great hotel - Clean and nice</t>
+  </si>
+  <si>
+    <t>My family stayed here in 3 rooms and we all had a great stay. Nice breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chirag S, Director of Sales at Holiday Inn Express Pearland, responded to this reviewResponded May 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2012</t>
+  </si>
+  <si>
+    <t>My family stayed here in 3 rooms and we all had a great stay. Nice breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r127427528-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>127427528</t>
+  </si>
+  <si>
+    <t>04/07/2012</t>
+  </si>
+  <si>
+    <t>Nice clean hotel with few issues</t>
+  </si>
+  <si>
+    <t>Purpose of stay: Local business for 4 nights.The good:  Very clean room with a great free breakfast buffet. Good location and newspapers included every day.  Free WiFi worked well.  Pool open and clean. Walmart, subway and food very close.  Nice exterior with plenty of parking.The bad: 1.  Strange TV that kept tuning out every 10 min (i didn't complain cause i didn't watch it much).  2.  Fridge broken on first day but promptly fixed.  3.  Construction around hotel annoying but can make easy U-turns everywhere. 4.  Cinnamon buns went fast and took a while to be replaced and the pancake machine never worked. 5.  Never got replacement Q-Tips or cups after they were used on the first day.Verdict:  Nice and clean hotel in good location. small issues need to be addressed for a 5 star review but overall i was very pleased.  Great price from priceline.comMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Chirag S, Director of Sales at Holiday Inn Express Pearland, responded to this reviewResponded April 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2012</t>
+  </si>
+  <si>
+    <t>Purpose of stay: Local business for 4 nights.The good:  Very clean room with a great free breakfast buffet. Good location and newspapers included every day.  Free WiFi worked well.  Pool open and clean. Walmart, subway and food very close.  Nice exterior with plenty of parking.The bad: 1.  Strange TV that kept tuning out every 10 min (i didn't complain cause i didn't watch it much).  2.  Fridge broken on first day but promptly fixed.  3.  Construction around hotel annoying but can make easy U-turns everywhere. 4.  Cinnamon buns went fast and took a while to be replaced and the pancake machine never worked. 5.  Never got replacement Q-Tips or cups after they were used on the first day.Verdict:  Nice and clean hotel in good location. small issues need to be addressed for a 5 star review but overall i was very pleased.  Great price from priceline.comMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r125886550-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>125886550</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Staff very accommodating and super clean rooms.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights and it was great! Super clean rooms, great staff from maids to manager, and huge selection and variety of breakfast options served. I got a large discount from Priceline but it's worth the regular price rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chirag S, Director of Sales at Holiday Inn Express Pearland, responded to this reviewResponded March 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights and it was great! Super clean rooms, great staff from maids to manager, and huge selection and variety of breakfast options served. I got a large discount from Priceline but it's worth the regular price rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r120972029-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120972029</t>
+  </si>
+  <si>
+    <t>11/23/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel, but....</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in early November.  The room was decent, although the walls are somewhat thin.  The hotel is in an area going through some road construction.  We were disappointed the outdoor pool and hot tub were closed for the season given the temperature was in the low 70's.  The breakfast was excellent.  Our big problem came when we returned home from the Space Center....the door to our room was open.  After a frantic search for valuables (ipad, laptop), we realized nothing was missing.  I complained to the front desk both at this time and then at checkout.  I was promised Priority Club points.  A week went by and no points were credited.  I finally spoke to the manager, Mimi.  She apologized and promised to credit points to our acccount.  Shortly thereafter, a e-mail was received showing 1,000 points credited.  Not exactly what I was expecting.  I would have thought 10,000 would have been a fair amount.  Overall, this hotel is okay.  I probably would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Chirag S, Director of Sales at Holiday Inn Express Pearland, responded to this reviewResponded January 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in early November.  The room was decent, although the walls are somewhat thin.  The hotel is in an area going through some road construction.  We were disappointed the outdoor pool and hot tub were closed for the season given the temperature was in the low 70's.  The breakfast was excellent.  Our big problem came when we returned home from the Space Center....the door to our room was open.  After a frantic search for valuables (ipad, laptop), we realized nothing was missing.  I complained to the front desk both at this time and then at checkout.  I was promised Priority Club points.  A week went by and no points were credited.  I finally spoke to the manager, Mimi.  She apologized and promised to credit points to our acccount.  Shortly thereafter, a e-mail was received showing 1,000 points credited.  Not exactly what I was expecting.  I would have thought 10,000 would have been a fair amount.  Overall, this hotel is okay.  I probably would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r120300434-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120300434</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>I slept do well on the comfortable bed. Our luggage did not get to the hotel as we had planned but I was able to go to the nt desk and get toothbrushes and toothpaste. Breakfast was delicious and everything was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2011</t>
+  </si>
+  <si>
+    <t>I slept do well on the comfortable bed. Our luggage did not get to the hotel as we had planned but I was able to go to the nt desk and get toothbrushes and toothpaste. Breakfast was delicious and everything was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r120203665-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120203665</t>
+  </si>
+  <si>
+    <t>11/05/2011</t>
+  </si>
+  <si>
+    <t>Small rooms, Very thin walls.</t>
+  </si>
+  <si>
+    <t>Below average Holiday inn express. Smallest "suite" I have ever been in. I could hear the people in the room next to me all night. Not that they were making a lot of noise, just very thin wall. Nothing near by (no shops or restaurants) Staff was not great but not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Below average Holiday inn express. Smallest "suite" I have ever been in. I could hear the people in the room next to me all night. Not that they were making a lot of noise, just very thin wall. Nothing near by (no shops or restaurants) Staff was not great but not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r118228472-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>118228472</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>Recent stay!</t>
+  </si>
+  <si>
+    <t>If anyone is ever in the Pearland area this is the best hotel to stay in!  Rooms are large, bed is fantastic, breakfast was really good.  Very clean hotel looks like new, staff keeps well maintained.  The aquarium in the front lobby is beautiful!!  One of the nicest things about this hotel is the staff!  They are super nice greeted upon check in with a friendly smile!  Felt like I was the most important person to them even though they had many other guest.  But I did notice they treated everyone who walked in the door with a warm hello and made them feel as welcome as I was.  Have a great pool!  Very clean and nice area to enjoy and relax after a long day.  Highly recommend this hotel to anyone going to this area!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded September 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2011</t>
+  </si>
+  <si>
+    <t>If anyone is ever in the Pearland area this is the best hotel to stay in!  Rooms are large, bed is fantastic, breakfast was really good.  Very clean hotel looks like new, staff keeps well maintained.  The aquarium in the front lobby is beautiful!!  One of the nicest things about this hotel is the staff!  They are super nice greeted upon check in with a friendly smile!  Felt like I was the most important person to them even though they had many other guest.  But I did notice they treated everyone who walked in the door with a warm hello and made them feel as welcome as I was.  Have a great pool!  Very clean and nice area to enjoy and relax after a long day.  Highly recommend this hotel to anyone going to this area!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r118176607-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>118176607</t>
+  </si>
+  <si>
+    <t>09/15/2011</t>
+  </si>
+  <si>
+    <t>Vow what a great hotel........!!!</t>
+  </si>
+  <si>
+    <t>Superb guest service and extraordinary staff and especially the manager and the sales guy were so sweet and so friendly at the guest reception.The aquarium in the lobby is amazing and beautiful. Great and well maintained hotel with everything inside the room very new, and sparkling clean. And the beds are so comfortable and relaxing.This has been the best Holiday Inn Express that i have ever seen everything perfect and in place.Very Convenient from Hobby Airport. I got much more for the price that i paid. Surely i will come back no hunting for other hotels in the area.  'SIMPLY OUTSTANDING'MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded September 28, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2011</t>
+  </si>
+  <si>
+    <t>Superb guest service and extraordinary staff and especially the manager and the sales guy were so sweet and so friendly at the guest reception.The aquarium in the lobby is amazing and beautiful. Great and well maintained hotel with everything inside the room very new, and sparkling clean. And the beds are so comfortable and relaxing.This has been the best Holiday Inn Express that i have ever seen everything perfect and in place.Very Convenient from Hobby Airport. I got much more for the price that i paid. Surely i will come back no hunting for other hotels in the area.  'SIMPLY OUTSTANDING'More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r117298606-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>117298606</t>
+  </si>
+  <si>
+    <t>08/26/2011</t>
+  </si>
+  <si>
+    <t>What an enjoyable stay!</t>
+  </si>
+  <si>
+    <t>I stayed one night at this hotel.  Upon check-in I was given a gift bag with a bottle of water and a snack.  I thought it was a nice gesture.  I stayed in a mini suite which was nicely appointed.  It had a seating area and also a fridge &amp; microwave in the room.  The hotel appeared to be fairly new and was maintained very well.  The room and hotel premises was clean,  The hotel provides a free continental breakfast.  It wasn't anything special, but it was nice to be able to get coffee and fruit without leaving the premises.  I would definitely recommend this property.  There is construction on the road in front of the hotel, but this was a minor inconvenience.  The hotel is located close to a major thoroughfare.  Eating establishments were also in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded September 4, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2011</t>
+  </si>
+  <si>
+    <t>I stayed one night at this hotel.  Upon check-in I was given a gift bag with a bottle of water and a snack.  I thought it was a nice gesture.  I stayed in a mini suite which was nicely appointed.  It had a seating area and also a fridge &amp; microwave in the room.  The hotel appeared to be fairly new and was maintained very well.  The room and hotel premises was clean,  The hotel provides a free continental breakfast.  It wasn't anything special, but it was nice to be able to get coffee and fruit without leaving the premises.  I would definitely recommend this property.  There is construction on the road in front of the hotel, but this was a minor inconvenience.  The hotel is located close to a major thoroughfare.  Eating establishments were also in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r38203422-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>38203422</t>
+  </si>
+  <si>
+    <t>08/19/2009</t>
+  </si>
+  <si>
+    <t>Nice room, BUT If you want any sleep don't go there</t>
+  </si>
+  <si>
+    <t>My husband and I went August 14 to a family going away party for our grandson. Our daughter made reservations at Holiday Inn as there isn't enough room for everyone at the house plus my husband had had shoulder surgery and needed a quiet place with a king size bed. We got the king size bed but at 2:52AM all hell broke loose in the hallway on our floor. There was a party......at least 20 people roving the halls screaming and yelling. They descended to the pool at 3:15 AM (which was supposed to close at 11:00PM ) with beer coolers where they proceeded to drink and party til 4:45AM  , then back to the halls  of the hotel screaming and yelling until 5:30AM.. Did we call the desk clerk ? Only five or six times to a clerk who was unwilling or too inexperienced to handle the situation. We asked her to call the manager which she claimed she did but we never heard from one. After complaining the next morning our room was comped. As we spoke to the front desk manager numerous other guests spoke up and complained about the problem . Were there rooms comped ? Probably not unless they asked for it. The personnel  is in very bad need of training as is the management. We spent the next night at the Best Western across the street .....not as nice but at least quiet and...My husband and I went August 14 to a family going away party for our grandson. Our daughter made reservations at Holiday Inn as there isn't enough room for everyone at the house plus my husband had had shoulder surgery and needed a quiet place with a king size bed. We got the king size bed but at 2:52AM all hell broke loose in the hallway on our floor. There was a party......at least 20 people roving the halls screaming and yelling. They descended to the pool at 3:15 AM (which was supposed to close at 11:00PM ) with beer coolers where they proceeded to drink and party til 4:45AM  , then back to the halls  of the hotel screaming and yelling until 5:30AM.. Did we call the desk clerk ? Only five or six times to a clerk who was unwilling or too inexperienced to handle the situation. We asked her to call the manager which she claimed she did but we never heard from one. After complaining the next morning our room was comped. As we spoke to the front desk manager numerous other guests spoke up and complained about the problem . Were there rooms comped ? Probably not unless they asked for it. The personnel  is in very bad need of training as is the management. We spent the next night at the Best Western across the street .....not as nice but at least quiet and seemed to have a better trained staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 11, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2010</t>
+  </si>
+  <si>
+    <t>My husband and I went August 14 to a family going away party for our grandson. Our daughter made reservations at Holiday Inn as there isn't enough room for everyone at the house plus my husband had had shoulder surgery and needed a quiet place with a king size bed. We got the king size bed but at 2:52AM all hell broke loose in the hallway on our floor. There was a party......at least 20 people roving the halls screaming and yelling. They descended to the pool at 3:15 AM (which was supposed to close at 11:00PM ) with beer coolers where they proceeded to drink and party til 4:45AM  , then back to the halls  of the hotel screaming and yelling until 5:30AM.. Did we call the desk clerk ? Only five or six times to a clerk who was unwilling or too inexperienced to handle the situation. We asked her to call the manager which she claimed she did but we never heard from one. After complaining the next morning our room was comped. As we spoke to the front desk manager numerous other guests spoke up and complained about the problem . Were there rooms comped ? Probably not unless they asked for it. The personnel  is in very bad need of training as is the management. We spent the next night at the Best Western across the street .....not as nice but at least quiet and...My husband and I went August 14 to a family going away party for our grandson. Our daughter made reservations at Holiday Inn as there isn't enough room for everyone at the house plus my husband had had shoulder surgery and needed a quiet place with a king size bed. We got the king size bed but at 2:52AM all hell broke loose in the hallway on our floor. There was a party......at least 20 people roving the halls screaming and yelling. They descended to the pool at 3:15 AM (which was supposed to close at 11:00PM ) with beer coolers where they proceeded to drink and party til 4:45AM  , then back to the halls  of the hotel screaming and yelling until 5:30AM.. Did we call the desk clerk ? Only five or six times to a clerk who was unwilling or too inexperienced to handle the situation. We asked her to call the manager which she claimed she did but we never heard from one. After complaining the next morning our room was comped. As we spoke to the front desk manager numerous other guests spoke up and complained about the problem . Were there rooms comped ? Probably not unless they asked for it. The personnel  is in very bad need of training as is the management. We spent the next night at the Best Western across the street .....not as nice but at least quiet and seemed to have a better trained staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r22416220-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>22416220</t>
+  </si>
+  <si>
+    <t>12/03/2008</t>
+  </si>
+  <si>
+    <t>Unhappy Customer</t>
+  </si>
+  <si>
+    <t>To Whom it May Concern. 
+After I called directory assistance for the number to a Holiday Inn Express in Sugar Land, TX -- Holiday Inn Express booked my reservation for Pearland, TX on Aug. 30, 2008 while I was under the vivid impression I was booked for Sugar Land for Aug. 31, 2008. 
+When I arrived Aug. 31 at Sugar Land, the front desk clerks there said they had no reservation in my name. Why? Because I was booked at Pearland, they said. 
+So, I asked the front desk clerks, can you change my reservation from Pearland to Sugar Land? No, because I was booked for Aug. 30 in Pearland, where I was recorded as a no-show guest, and Pearland charged me $125.00. 
+I stayed at Sugar Land on Aug. 31, where I wanted to stay all along from the get-go. 
+I have faxed a request to Holiday Inn Express in Pearland for a $125 refund on Aug. 30 at Pearland, along with the receipt for my stay at Sugar Land on Aug. 31, as well as my cell phone records showing my calls to directory assistance, asking for a Holiday Inn Express reservation in Sugar Land. So far, no response. 
+It appears directory assistance gave me a wrong number while I was making reservations. I believe this miscommunication incident can be rectified easily. If so, I would recommend Holiday Inn Express to friends and neighbors. 
+A refund to from...To Whom it May Concern. After I called directory assistance for the number to a Holiday Inn Express in Sugar Land, TX -- Holiday Inn Express booked my reservation for Pearland, TX on Aug. 30, 2008 while I was under the vivid impression I was booked for Sugar Land for Aug. 31, 2008. When I arrived Aug. 31 at Sugar Land, the front desk clerks there said they had no reservation in my name. Why? Because I was booked at Pearland, they said. So, I asked the front desk clerks, can you change my reservation from Pearland to Sugar Land? No, because I was booked for Aug. 30 in Pearland, where I was recorded as a no-show guest, and Pearland charged me $125.00. I stayed at Sugar Land on Aug. 31, where I wanted to stay all along from the get-go. I have faxed a request to Holiday Inn Express in Pearland for a $125 refund on Aug. 30 at Pearland, along with the receipt for my stay at Sugar Land on Aug. 31, as well as my cell phone records showing my calls to directory assistance, asking for a Holiday Inn Express reservation in Sugar Land. So far, no response. It appears directory assistance gave me a wrong number while I was making reservations. I believe this miscommunication incident can be rectified easily. If so, I would recommend Holiday Inn Express to friends and neighbors. A refund to from Holiday Inn Express Pearland will soothe my bruised feelings, even if Pearland wants to attach a token service charge. Otherwise, I cannot see making future reservations at Holiday Inn Express, anywhere, nor would I urge friends and neighbors to do so. For the record, I enjoyed my stay at Sugar Land with no complaints. It is not my intent to slander Holiday Inn Express. On the other hand, a little help on the matter will be appreciated. Thanks very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>To Whom it May Concern. 
+After I called directory assistance for the number to a Holiday Inn Express in Sugar Land, TX -- Holiday Inn Express booked my reservation for Pearland, TX on Aug. 30, 2008 while I was under the vivid impression I was booked for Sugar Land for Aug. 31, 2008. 
+When I arrived Aug. 31 at Sugar Land, the front desk clerks there said they had no reservation in my name. Why? Because I was booked at Pearland, they said. 
+So, I asked the front desk clerks, can you change my reservation from Pearland to Sugar Land? No, because I was booked for Aug. 30 in Pearland, where I was recorded as a no-show guest, and Pearland charged me $125.00. 
+I stayed at Sugar Land on Aug. 31, where I wanted to stay all along from the get-go. 
+I have faxed a request to Holiday Inn Express in Pearland for a $125 refund on Aug. 30 at Pearland, along with the receipt for my stay at Sugar Land on Aug. 31, as well as my cell phone records showing my calls to directory assistance, asking for a Holiday Inn Express reservation in Sugar Land. So far, no response. 
+It appears directory assistance gave me a wrong number while I was making reservations. I believe this miscommunication incident can be rectified easily. If so, I would recommend Holiday Inn Express to friends and neighbors. 
+A refund to from...To Whom it May Concern. After I called directory assistance for the number to a Holiday Inn Express in Sugar Land, TX -- Holiday Inn Express booked my reservation for Pearland, TX on Aug. 30, 2008 while I was under the vivid impression I was booked for Sugar Land for Aug. 31, 2008. When I arrived Aug. 31 at Sugar Land, the front desk clerks there said they had no reservation in my name. Why? Because I was booked at Pearland, they said. So, I asked the front desk clerks, can you change my reservation from Pearland to Sugar Land? No, because I was booked for Aug. 30 in Pearland, where I was recorded as a no-show guest, and Pearland charged me $125.00. I stayed at Sugar Land on Aug. 31, where I wanted to stay all along from the get-go. I have faxed a request to Holiday Inn Express in Pearland for a $125 refund on Aug. 30 at Pearland, along with the receipt for my stay at Sugar Land on Aug. 31, as well as my cell phone records showing my calls to directory assistance, asking for a Holiday Inn Express reservation in Sugar Land. So far, no response. It appears directory assistance gave me a wrong number while I was making reservations. I believe this miscommunication incident can be rectified easily. If so, I would recommend Holiday Inn Express to friends and neighbors. A refund to from Holiday Inn Express Pearland will soothe my bruised feelings, even if Pearland wants to attach a token service charge. Otherwise, I cannot see making future reservations at Holiday Inn Express, anywhere, nor would I urge friends and neighbors to do so. For the record, I enjoyed my stay at Sugar Land with no complaints. It is not my intent to slander Holiday Inn Express. On the other hand, a little help on the matter will be appreciated. Thanks very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r6549767-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>6549767</t>
+  </si>
+  <si>
+    <t>01/02/2007</t>
+  </si>
+  <si>
+    <t>Improve Rooms</t>
+  </si>
+  <si>
+    <t>We checked in the hotel late (around 1am) and the room which we were checked into was not cleaned.  We called the front desk and ask them to move us.  They then put us on the smoking floor, which we had requested to be away from.  The room which we moved to had no soap or towels.  We again had to go down stairs to get them from the front desk.  We asked to speak to the manger in the morning and they said he was off and would not return to property for the next 3 to 4 days.  Awful service and would NOT recommend this hotel to anyone who is wanting to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>We checked in the hotel late (around 1am) and the room which we were checked into was not cleaned.  We called the front desk and ask them to move us.  They then put us on the smoking floor, which we had requested to be away from.  The room which we moved to had no soap or towels.  We again had to go down stairs to get them from the front desk.  We asked to speak to the manger in the morning and they said he was off and would not return to property for the next 3 to 4 days.  Awful service and would NOT recommend this hotel to anyone who is wanting to stay in the area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1735,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1767,3267 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>232</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>263</v>
+      </c>
+      <c r="X28" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s">
+        <v>270</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>272</v>
+      </c>
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>280</v>
+      </c>
+      <c r="X30" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>284</v>
+      </c>
+      <c r="J31" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" t="s">
+        <v>286</v>
+      </c>
+      <c r="L31" t="s">
+        <v>287</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>288</v>
+      </c>
+      <c r="X31" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>292</v>
+      </c>
+      <c r="J32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>280</v>
+      </c>
+      <c r="X32" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>304</v>
+      </c>
+      <c r="X33" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>280</v>
+      </c>
+      <c r="X34" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>280</v>
+      </c>
+      <c r="X35" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>321</v>
+      </c>
+      <c r="J36" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" t="s">
+        <v>323</v>
+      </c>
+      <c r="L36" t="s">
+        <v>324</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>325</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s">
+        <v>331</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>332</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>339</v>
+      </c>
+      <c r="X38" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" t="s">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s">
+        <v>345</v>
+      </c>
+      <c r="L39" t="s">
+        <v>346</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>347</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>348</v>
+      </c>
+      <c r="X39" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>352</v>
+      </c>
+      <c r="J40" t="s">
+        <v>353</v>
+      </c>
+      <c r="K40" t="s">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s">
+        <v>355</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>356</v>
+      </c>
+      <c r="X40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>365</v>
+      </c>
+      <c r="X41" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>369</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+      <c r="K42" t="s">
+        <v>371</v>
+      </c>
+      <c r="L42" t="s">
+        <v>372</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>373</v>
+      </c>
+      <c r="X42" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+      <c r="J43" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" t="s">
+        <v>380</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>364</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>373</v>
+      </c>
+      <c r="X43" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>382</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>383</v>
+      </c>
+      <c r="J44" t="s">
+        <v>384</v>
+      </c>
+      <c r="K44" t="s">
+        <v>385</v>
+      </c>
+      <c r="L44" t="s">
+        <v>386</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>387</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>388</v>
+      </c>
+      <c r="X44" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>392</v>
+      </c>
+      <c r="J45" t="s">
+        <v>393</v>
+      </c>
+      <c r="K45" t="s">
+        <v>394</v>
+      </c>
+      <c r="L45" t="s">
+        <v>395</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>396</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>397</v>
+      </c>
+      <c r="X45" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" t="s">
+        <v>402</v>
+      </c>
+      <c r="K46" t="s">
+        <v>403</v>
+      </c>
+      <c r="L46" t="s">
+        <v>404</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>405</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>406</v>
+      </c>
+      <c r="X46" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>410</v>
+      </c>
+      <c r="J47" t="s">
+        <v>411</v>
+      </c>
+      <c r="K47" t="s">
+        <v>412</v>
+      </c>
+      <c r="L47" t="s">
+        <v>413</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>414</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>415</v>
+      </c>
+      <c r="X47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48" t="s">
+        <v>420</v>
+      </c>
+      <c r="K48" t="s">
+        <v>421</v>
+      </c>
+      <c r="L48" t="s">
+        <v>422</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>423</v>
+      </c>
+      <c r="O48" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>426</v>
+      </c>
+      <c r="J49" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" t="s">
+        <v>428</v>
+      </c>
+      <c r="L49" t="s">
+        <v>429</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>430</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_339.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_339.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="680">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r609626294-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>293238</t>
+  </si>
+  <si>
+    <t>609626294</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Pretty average Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>Your everyday Holiday Inn Express. The pool is nicer than some others that I've been to, and the lobby area is nice and inviting. Breakfast, workout facility, conference rooms, etc. all included as usual. The check-in and check-out process here was very quick and easy. Just a few miles south of Hobby Airport.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r555137415-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>555137415</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing hotel </t>
+  </si>
+  <si>
+    <t>If you have a choice to stay anywhere in Pearland stay here. The hotel is clean and you feel like you’ve been transported to a tropical exotic destination. The manager takes pride in his job and it shows from the minute you visit the hotel.  The shuttle wasn’t running the morning we were departing and her personally came and drove us to the airport. Amazing customer service.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Shelar V, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>If you have a choice to stay anywhere in Pearland stay here. The hotel is clean and you feel like you’ve been transported to a tropical exotic destination. The manager takes pride in his job and it shows from the minute you visit the hotel.  The shuttle wasn’t running the morning we were departing and her personally came and drove us to the airport. Amazing customer service.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r579756528-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>579756528</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Checked in on a Saturday afternoon, was greeted by friendly staff, room was clean upon arrival, nice work out area and nice pool. My neighbor next to me was playing some music that was a tad bit loud and once i asked front desk to check on it, it was handled very quickly with no other issues the rest of the night.Only flaw was breakfast area, it seemed a bit cramped and food was being served in yellow plastic bins with tops. A facility such as Holiday Inn might want to think about upgrading to stainless steel steam servers??  But overall good stayMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Shelar V, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded May 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2018</t>
+  </si>
+  <si>
+    <t>Checked in on a Saturday afternoon, was greeted by friendly staff, room was clean upon arrival, nice work out area and nice pool. My neighbor next to me was playing some music that was a tad bit loud and once i asked front desk to check on it, it was handled very quickly with no other issues the rest of the night.Only flaw was breakfast area, it seemed a bit cramped and food was being served in yellow plastic bins with tops. A facility such as Holiday Inn might want to think about upgrading to stainless steel steam servers??  But overall good stayMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r564950715-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
-    <t>56432</t>
-  </si>
-  <si>
-    <t>293238</t>
-  </si>
-  <si>
     <t>564950715</t>
   </si>
   <si>
@@ -177,9 +258,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>First of all, the room was clean, comfortable, and I had a great nights sleep.  The staff was friendly, and they offer the typical express breakfast.The main two problems that cause me to downgrade the rating, was a smoke smell and their fitness room.Although the hotel clearly states it is a non-smoking facility, there was a definite smoke aroma near the main entrance, the rear entrance, and in the elevator.I got up early to squeeze in a quick workout, but my room key would not work to access the room. I tried the front desk, but there was no one there. I went back to my room and called the front desk, and I reached someone on the first ring. They explained that they had a problem with the lock on the door and the staff would open it for me. After going back downstairs, I waited another five minutes for someone to show up, and then another few minutes for them to find someone with the correct key. Obviously it never occurred to them to put a sign on the door explaining the process for entry.More</t>
   </si>
   <si>
@@ -201,12 +279,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>Shelar V, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded January 25, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 25, 2018</t>
-  </si>
-  <si>
     <t>Stayed here overnight before an early morning flight. Close to airport. Room was clean and very comfortable. Did not have a chance to have breakfast as flight was very early. The front desk staff were few and welcoming. More</t>
   </si>
   <si>
@@ -234,6 +306,60 @@
     <t>Hotel was nice, room was clean and comfortable, staff was very friendly and helpful, breakfast was plentiful, tasty, good variety. We were here for a wedding, otherwise, not much to do in Pearland unless you're into shopping:  downtown has a huge outdoor mall, lots of restaurants, too.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r505091713-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>505091713</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>A couple of misfires. Initially assigned a room that wasn't ready. Reassigned promptly. The printer downstairs doesn't work. Not posted and the desk didn't offer to print for me. Ice machine out on second floor. Not bad but a functioning business center is important. Also cars parked in registration circle?  Stay, but don't expect 100%  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>A couple of misfires. Initially assigned a room that wasn't ready. Reassigned promptly. The printer downstairs doesn't work. Not posted and the desk didn't offer to print for me. Ice machine out on second floor. Not bad but a functioning business center is important. Also cars parked in registration circle?  Stay, but don't expect 100%  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r484784417-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>484784417</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We needed a room just for the night. This hotel was well priced and near to our location. The staff were all extremely friendly. It is located close to Beltway 8 as well as being close to a number if restairants. We had a small issue with our room key but the front desk person fixed it promptly and politely. She gave us the Wi-Fi password and told us of the different amenities at the hotel (breakfast, etc). The room was very nice with a small fridge, tv, nice pillows, towels, ironing board, and coffee pot. They offer a few free items like toothbrushes if needed. Will definitely stay here again if the need arises.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>We needed a room just for the night. This hotel was well priced and near to our location. The staff were all extremely friendly. It is located close to Beltway 8 as well as being close to a number if restairants. We had a small issue with our room key but the front desk person fixed it promptly and politely. She gave us the Wi-Fi password and told us of the different amenities at the hotel (breakfast, etc). The room was very nice with a small fridge, tv, nice pillows, towels, ironing board, and coffee pot. They offer a few free items like toothbrushes if needed. Will definitely stay here again if the need arises.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r462919294-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -252,15 +378,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 11, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 11, 2017</t>
-  </si>
-  <si>
     <t>Pleased with our choice to stay at the Holiday Inn in Pearland. The desk staff was professional and efficient. The hotel, hallways, and our room were all very clean. We were pleased with the morning breakfast choices and once again on the notable cleanliness of the food area and dining room.  The beds were extremely comfortable and truly queen-size (not double) beds.More</t>
   </si>
   <si>
@@ -309,9 +426,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Sheldon G, Manager at Holiday Inn Express Pearland, responded to this reviewResponded September 8, 2016</t>
   </si>
   <si>
@@ -321,6 +435,45 @@
     <t>Arrived at 11 PM due to flight delays and front desk veryhelpful as had not had dinner.  Room on 3 rd floor completed. remodeledand bed was great.  Stay 3 nights as visiting for friends 95th birthday.Breakfast in the hotel was good and I didn't have to find a place.Parking was limited due to construction but one new area was notblocked off so used it as did other people.  When I return willstay here again.  The only thing in room that had been redone wasbench for your luggage and from before they remodeled and had several stains. Bathroom also remodeled.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r412517984-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>412517984</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Traveling </t>
+  </si>
+  <si>
+    <t>This is my second time staying at this Holiday Inn Express. This evening I was greeted by (Sheldon Green). Mind you at our first encounter he appear to be just a helpful guy working with the staff at the front desk.  He was so helpful, polite, and accommodating with making sure my Stay was fine. I told him my Room was clean, the bed is comfortable, I have fast Internet to conduct my work, the Breakfast was Delicious and the Value for my money is hard to beat. We continued on with some small talk but the conversation went so well i wanted to know what his position was so I can tell his Manager how Great of an employee he was to me. Thats when i found out he is the General Manager. As the (GM) He is setting a good example for his staff. Now you must know they are currently renovating. I did not find that to be a problem. I can't wait to see the new upgrades in 2017. Enjoy Your Stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sheldon G, Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>This is my second time staying at this Holiday Inn Express. This evening I was greeted by (Sheldon Green). Mind you at our first encounter he appear to be just a helpful guy working with the staff at the front desk.  He was so helpful, polite, and accommodating with making sure my Stay was fine. I told him my Room was clean, the bed is comfortable, I have fast Internet to conduct my work, the Breakfast was Delicious and the Value for my money is hard to beat. We continued on with some small talk but the conversation went so well i wanted to know what his position was so I can tell his Manager how Great of an employee he was to me. Thats when i found out he is the General Manager. As the (GM) He is setting a good example for his staff. Now you must know they are currently renovating. I did not find that to be a problem. I can't wait to see the new upgrades in 2017. Enjoy Your Stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r408075677-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>408075677</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Awesome staff</t>
+  </si>
+  <si>
+    <t>This is a gem of a hotel! Yes they are remodeling but it is amazing! A new breakfast area where you can go hang out and have a great breakfast or in the evening several days a week have happy hour. Salvador took care of all my needs at check in! Explained all the amenities and everything! We're moving up to Pareland and when we have family in the area we will be booking this hotel! Please give it a try! Ask for Salvador if you have a problem because he was great when we checked in! Ana was awesome also! Gave us a map and more info about the area! Bedding is wonderful pool delightful! Don't listen to negative reviews! Yes there are some quirks with a remodel but that's to be expected folks! They are very upfront with what is going on to try to make this hotel even nicer!  MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a gem of a hotel! Yes they are remodeling but it is amazing! A new breakfast area where you can go hang out and have a great breakfast or in the evening several days a week have happy hour. Salvador took care of all my needs at check in! Explained all the amenities and everything! We're moving up to Pareland and when we have family in the area we will be booking this hotel! Please give it a try! Ask for Salvador if you have a problem because he was great when we checked in! Ana was awesome also! Gave us a map and more info about the area! Bedding is wonderful pool delightful! Don't listen to negative reviews! Yes there are some quirks with a remodel but that's to be expected folks! They are very upfront with what is going on to try to make this hotel even nicer!  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r399781977-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -396,6 +549,51 @@
     <t>Front Desk:  OK not super friendly but got the job doneRoom: OK and the AC worked GreatLocation: Great if you are going to fly out of HobbyWorkout Room: Horrible - No AC very cramped only one treadmill some equipment broken.Breakfast: OK Friendly staff.I expect this place to get better but for now I would pass in particular if you want to work out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r376469560-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>376469560</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>FRIENDLY STAFF</t>
+  </si>
+  <si>
+    <t>Greeted and welcomed by the desk clerk.  He was professionally dressed and so friendly and polite.  Room was great. Had everything we needed. Very clean and updated.  The tv channels were a little dicey but I am sure that was due to the thunder storms and the fact it was satellite tv connection. Breakfast had a good variety daily.Free USA Today daily. Although we did not use it the pool area was very nice looking and well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sheldon G, Manager at Holiday Inn Express Pearland, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Greeted and welcomed by the desk clerk.  He was professionally dressed and so friendly and polite.  Room was great. Had everything we needed. Very clean and updated.  The tv channels were a little dicey but I am sure that was due to the thunder storms and the fact it was satellite tv connection. Breakfast had a good variety daily.Free USA Today daily. Although we did not use it the pool area was very nice looking and well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r371578732-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>371578732</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Good time"</t>
+  </si>
+  <si>
+    <t>This hotel is amazing, staff friendly and especially clean rooms.breakfast hot and delicious. They make feel like home!!rates good!  Pool very clean hot tub also I recommend this property stores near to the hotel restaurants too !!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This hotel is amazing, staff friendly and especially clean rooms.breakfast hot and delicious. They make feel like home!!rates good!  Pool very clean hot tub also I recommend this property stores near to the hotel restaurants too !!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r362667164-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -409,9 +607,6 @@
   </si>
   <si>
     <t>The GM was very friendly.  Small area in the business center.  The room was great , Bed was very comfortable. Large room with plenty of space.  Pillows are a plus very soft. Breakfast area very big. The outside lot could use more light. So park close to the front.  The side looks kinda of scary.  MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2016</t>
   </si>
   <si>
     <t>The GM was very friendly.  Small area in the business center.  The room was great , Bed was very comfortable. Large room with plenty of space.  Pillows are a plus very soft. Breakfast area very big. The outside lot could use more light. So park close to the front.  The side looks kinda of scary.  More</t>
@@ -468,6 +663,54 @@
 Because of the event in Brussels on the prior day, I woke up extra early in anticipation of stricter and more time-consuming airport security process.  I checked out around 6am, before the normal breakfast hours.  The breakfast spread was mostly put out and the attendant was more than happy to allow us to get in early.  She...I saw a 3-star review dated 2 days before this review that highlighted several issues.  My experience was completely opposite.  The staff is amazingly friendly and helpful, and I didn't have any problem whatsoever.I spent a night here before departing from Hobby airport the next morning.  The night staff checked us in was super amazingly friendly - I definitely got that warm Texan hospitality.  He was efficient at processing our check-in and offered choice of goody bag or welcome points for my Platinum status. I opted for points because I already have bottled water on me...  As I was walking into my room, I got an email alert from IHG of the points being deposited to my account - now that is someone who is on the top of their game!The room is clean, modern and has some nice looking furniture.  The internet was working reliably and fast.  Bathroom is clean and spacious.  While there are some train tracks not too far from the hotel, there was no noise issue whatsoever.  I had a great much-needed sleep before my morning flight.Because of the event in Brussels on the prior day, I woke up extra early in anticipation of stricter and more time-consuming airport security process.  I checked out around 6am, before the normal breakfast hours.  The breakfast spread was mostly put out and the attendant was more than happy to allow us to get in early.  She gave us bags to take a couple of items to go...all without a fuss but a gracious welcome.All in all, this is a very nice property and I couldn't find any fault even if I wanted to.  I will definitely be back next time my business travel takes me to this area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r358292830-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>358292830</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>you wont have to Remind me not to stay at this place again</t>
+  </si>
+  <si>
+    <t>How can be so rude they act like we should go awary and not bother them they don't offer reward points for check inn or {water and snacks }i got up early to eat breakfast it was after 6 am and not ready the staff looked half asleep ,I did not get wake up call i stayed on night did not get rapid check out , for a new hotel i would expect they have friendly people that want me to stay a second nightMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded April 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2016</t>
+  </si>
+  <si>
+    <t>How can be so rude they act like we should go awary and not bother them they don't offer reward points for check inn or {water and snacks }i got up early to eat breakfast it was after 6 am and not ready the staff looked half asleep ,I did not get wake up call i stayed on night did not get rapid check out , for a new hotel i would expect they have friendly people that want me to stay a second nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r349433434-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>349433434</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>This place had everything we needed up to the things that were available in the room in the cabinets ( paper plates, paper bowls and plastic ware) to very professional Salvador and Anna at the front desk! Thank you both to making the stay for my family exceptional. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This place had everything we needed up to the things that were available in the room in the cabinets ( paper plates, paper bowls and plastic ware) to very professional Salvador and Anna at the front desk! Thank you both to making the stay for my family exceptional. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r328902497-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -537,6 +780,48 @@
     <t>Hotel &amp; staff members are always very nice. Fair rates, nice rooms, although they could use some updating, power outlets excetera new mattresses would be nice. But for all around nice, clean, and people that make you feel welcome, its consistant.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r309390042-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>309390042</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>I stayed for business, got a clean room didn't see anything wrong with it. I am in the IT field and tried to use the hardline that was in the room after being told it would work, it did not. Breakfast was good decent selection. They had a pool looked nice but didn't go I in. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I stayed for business, got a clean room didn't see anything wrong with it. I am in the IT field and tried to use the hardline that was in the room after being told it would work, it did not. Breakfast was good decent selection. They had a pool looked nice but didn't go I in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r288685551-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>288685551</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>great stay.......</t>
+  </si>
+  <si>
+    <t>very clean property, good location, checking in and out was fast and easy. staff are helpful. excellent breakfast, hot and cold of your choice, plenty for everybody. WIFI is complementary. room is spacious and i love that the AC works great, Texas summer will explain that.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>very clean property, good location, checking in and out was fast and easy. staff are helpful. excellent breakfast, hot and cold of your choice, plenty for everybody. WIFI is complementary. room is spacious and i love that the AC works great, Texas summer will explain that.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r274553189-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -603,6 +888,48 @@
     <t>Very nice hotel, quiet, nice freindly staff. I stayed there in Januarary of this year and to my surprise, when i walked in, the gentleman that checked me in before recognized me. I must say, i was impressed. If you're flying out of Hobby, its an easy 6 mile drive to the airport.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r260390999-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>260390999</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>awesome Customer service</t>
+  </si>
+  <si>
+    <t>Holiday Inn is our go to place no matter what city we are in but My company is based out of Pearland and we stay here often. Pearland's Holiday Inn customer service is always good but when I had to cancel a last minute reservation due to a cancelled meeting Sheldon was very helpful and understanding. We will continue to stay there on our trips into Pearland.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn is our go to place no matter what city we are in but My company is based out of Pearland and we stay here often. Pearland's Holiday Inn customer service is always good but when I had to cancel a last minute reservation due to a cancelled meeting Sheldon was very helpful and understanding. We will continue to stay there on our trips into Pearland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r260113828-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>260113828</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Loud Fan</t>
+  </si>
+  <si>
+    <t>The staff and Breakfast was good.   But we stayed here as our flight was cancelled and we did not have a lot of choice of places to stay.  It was the last room in the hotel and I feel as if they took advantage of that and charged us $149.00 excessive for this hotel.  It is in need of updates!  And the fan in the room for the AC was so loud that we could not have it running and sleep. It was so loud in fact that we had to run the TV way up to hear it, felt sorry for my neighbors.  Luckily we left the room to go have dinner and let the fan run long enough to cool off the room then had to shut it off to sleep.  Told the staff but they had no rooms to switch us to so we were stuck.  Wrote to corporate and all they said was sorry.  They should not have sold that room to us especially for that price.  Next time we will find a much better hotel to stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>The staff and Breakfast was good.   But we stayed here as our flight was cancelled and we did not have a lot of choice of places to stay.  It was the last room in the hotel and I feel as if they took advantage of that and charged us $149.00 excessive for this hotel.  It is in need of updates!  And the fan in the room for the AC was so loud that we could not have it running and sleep. It was so loud in fact that we had to run the TV way up to hear it, felt sorry for my neighbors.  Luckily we left the room to go have dinner and let the fan run long enough to cool off the room then had to shut it off to sleep.  Told the staff but they had no rooms to switch us to so we were stuck.  Wrote to corporate and all they said was sorry.  They should not have sold that room to us especially for that price.  Next time we will find a much better hotel to stay in.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r256448963-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -681,6 +1008,54 @@
     <t>Picked this hotel because it is a preferred hotel through my employer. Very nice hotel, clean rooms, nice staff. My only complaint is that it is a little inconvenient to get to the shopping and restaurants due to the lay out of the service roads. Great rates, I never noticed, nor was bothered by railroad tracks as mentioned in another review. I guess next time I am there, I will ask the staff if it makes a difference about where the room is located.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r241974881-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>241974881</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Beware of Train horns all night long</t>
+  </si>
+  <si>
+    <t>Please be aware they have a very good rate at this hotel however there are train tracks about a 300 yards behind the hotel. The train blew their horns all night long. The rooms seemed to have very thin walls as well as everything in the hall could be heard.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded December 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2014</t>
+  </si>
+  <si>
+    <t>Please be aware they have a very good rate at this hotel however there are train tracks about a 300 yards behind the hotel. The train blew their horns all night long. The rooms seemed to have very thin walls as well as everything in the hall could be heard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r238065442-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>238065442</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Truly close to everything</t>
+  </si>
+  <si>
+    <t>This was my first visit to Houston - but I will definitely be back - and stay here!The hotel appeared brand new.Parking was very close to room.Did not use pool or exercise room, but they looked greatPretty much a full breakfast was included.Five stars!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>This was my first visit to Houston - but I will definitely be back - and stay here!The hotel appeared brand new.Parking was very close to room.Did not use pool or exercise room, but they looked greatPretty much a full breakfast was included.Five stars!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r236941302-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -694,12 +1069,6 @@
   </si>
   <si>
     <t>I stayed here when I was in town for business and it was a great choice! The room was clean and very, very quiet! I was up late working and never heard anyone in the hall, in the rooms next to me or above me. I LOVE a quiet room! The bed was comfortable and I got a great night's sleep. I will definitely stay here again.MoreShow less</t>
-  </si>
-  <si>
-    <t>Sheldon G, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 10, 2014</t>
-  </si>
-  <si>
-    <t>Responded November 10, 2014</t>
   </si>
   <si>
     <t>I stayed here when I was in town for business and it was a great choice! The room was clean and very, very quiet! I was up late working and never heard anyone in the hall, in the rooms next to me or above me. I LOVE a quiet room! The bed was comfortable and I got a great night's sleep. I will definitely stay here again.More</t>
@@ -758,6 +1127,48 @@
 Now fast forward to check-in at the hotel:  When we went to the front desk for check in we were told that they do not accept cash as payments without using a credit card for a hold to placed on. I was told this information as I read a sign posted at the front desk that said "Notice to all guests paying with cash: A deposit is required at check-in."  I pointed this sign out the receptionist and she stated that the hotel was...Let me start by saying that I do not like to use a credit card when checking into a hotel.  I personally only like to use credit cards when there is an emergency.  Since this is a personal preference of mine, I always call the hotels that I want to book before I even make reservations to ensure that the hotel accepts cash as payment with a cash deposit when I check in.  In this case, I called a month ahead of time to ensure that this hotel would accommodate this preference and I was ensured that they would take cash as payment with a required deposit at check in.  With this information, I booked the hotel online.  I booked a total of four days, but the reservation had to be broken into two separate reservations due to the fact that we were going to San Antonio for two days in the middle of our reservation.  Now fast forward to check-in at the hotel:  When we went to the front desk for check in we were told that they do not accept cash as payments without using a credit card for a hold to placed on. I was told this information as I read a sign posted at the front desk that said "Notice to all guests paying with cash: A deposit is required at check-in."  I pointed this sign out the receptionist and she stated that the hotel was "under new owners" and that they no longer allowed customers to check in without using a credit card that would put a hold on your credit card for 7 to 10 days.  I told the receptionist that I called in advance about paying cash with a deposit.  With that information, she went to the manager and he stated that we would have to use a credit card, but he could put just first two of the days on our credit card instead of all four nights, which would allow our credit card to not have two holds on it. .  Due to being on the road all day and my children wanting to get out of the car, I conceded.  I was told that there would be a note attached to our reservation that would alert the receptionist to not charge our account twice when we checked back in.  Once it was time to check out before heading to San Antonio, my husband asked the receptionist if there was a note attached to our account and the receptionist stated that she didn't have a clue as to what he was talking about.  We had to wait approximately 30 minutes to start our drive to San Antonio while she got ahold of the manager to figure out how to ensure that we would not be charged two holds to our credit card.  It was finally figured out and we were on our way to San Antonio.  When we came back from San Antonio, check out was a fast.  We were checked into a different room from the first room and we woke up to the floor near the air conditioner soaking wet.  Our daughters luggage was on that side of room and all of her clothes were wet.  We alerted the desk and we were told that they would send a maintenance person to our room to see if it could be fixed.  We were told that it could be fixed, but it would take a little while and that it could be repaired while we went to do some things outside of the hotel.  I was shocked that they would not just offer us a new room instead of inconveniencing us and being in our room with all of our personal items without us being there.  I actually had to ask if we could simply be moved to another room.  They finally allowed us to move rooms.  I know that this is a lot of info, so let me get to other pros and cons:PROS:1.  The beds were comfortable2.  There were pillows that were both soft and firm3.  The rooms were somewhat spacious.4.  There was a nice dining area that our family was able to enjoy our meals at.CONS:1.  There was a lot of water damage to the ceilings2.  There was a charge for the washers and dryers (both were rather old), we had to use the washer and dryer due to our daughters clothes getting soaked from the leaky AC unit.  3.  Wi-Fi was rather slow.4.  The pancake maker was broken for our entire stay.Again, sorry for the long review.  I have written quite a few reviews in my life, however this is by far the longest.  The lack of customer service and the fact that the hotel did not stand by their previous statements and signage posted at the lobby concerning cash payments was very upsetting.  My family will not be staying at this hotel again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r210561571-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>210561571</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Birthday party</t>
+  </si>
+  <si>
+    <t>Meeting room was great. Great and friendly family environment.  Had a amazing time food was good and customer service couldn't have been better. We will definitely be back for some more fun in the sun later this summer. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Meeting room was great. Great and friendly family environment.  Had a amazing time food was good and customer service couldn't have been better. We will definitely be back for some more fun in the sun later this summer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r200269456-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>200269456</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Good customer Service</t>
+  </si>
+  <si>
+    <t>Melisa Hall she is very good and very cooperative, i never saw this kind of customer service, she goes beyond to help Guests and treat like family member.Pool was close due because no chair, it was little bit different because front desk was so straight and kind of rude but again Melisa Hall was totally exceptional.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Melisa Hall she is very good and very cooperative, i never saw this kind of customer service, she goes beyond to help Guests and treat like family member.Pool was close due because no chair, it was little bit different because front desk was so straight and kind of rude but again Melisa Hall was totally exceptional.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r199856831-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -773,9 +1184,6 @@
     <t>Enjoyed visit with the hotel during spring break and visiting family.  The area is ok just would have been nice if there was more restaurants nearby.  Staff was nice and very helpful when enough towels was not left in our room after they cleaned it.  I was also impressed with the cleaning staff, this was the first time i stayed in a hotel for a few nights and the housekeeping staff really cleaned the rooms it was not a hit and miss but they really cleaned the room.MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>Enjoyed visit with the hotel during spring break and visiting family.  The area is ok just would have been nice if there was more restaurants nearby.  Staff was nice and very helpful when enough towels was not left in our room after they cleaned it.  I was also impressed with the cleaning staff, this was the first time i stayed in a hotel for a few nights and the housekeeping staff really cleaned the rooms it was not a hit and miss but they really cleaned the room.More</t>
   </si>
   <si>
@@ -822,6 +1230,54 @@
   </si>
   <si>
     <t>Very nice HIE hotel.  The staff was friendly and accommodating.  It is not as close to Hobby as I thought it was and the morning traffic to get to Hobby took more than 20 minutes, just leave yourself enough time.  I thought the fish tank in the lobby was a very nice touch.  Breakfast staff in the AM was very pleasant.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r191196059-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>191196059</t>
+  </si>
+  <si>
+    <t>01/17/2014</t>
+  </si>
+  <si>
+    <t>Disapointing</t>
+  </si>
+  <si>
+    <t>I booked a 2 queen bed room for my husband and child who are attending a swim meet this weekend. They get there at 10 at night and expected a 2 queen bed room. Instead they get key-cards for a room that is already occupied. They then had to lug all their things back to the front desk to get another room, and then find that the new room is a 1 King bed room. I just signed up for IHG rewards club and expected more than this first impression since I've heard good things about IHG. Now, they have to share the King bed (no the pull out never provides a restfull sleep and I wouldn't subject our child who will be swimming in a meet this entire weekend to a pull out bed.) The reservation says breakfast included and there was no mention of breakfast when they checked in. I'm not sure how this place received 4.1 stars out of 5 on google reviews, but I searched for additional reviews after this experience and see that it only received 2.5 stars of 5 on Trip Advisor, which is closer in line to what we've experienced.  On top of all this, the elevator reeked of pot smoke. Not really an environment I would bring my child into. If it weren't for the 7AM start time for the meet tomorrow, we would have cancelled our reservation and booked at another...I booked a 2 queen bed room for my husband and child who are attending a swim meet this weekend. They get there at 10 at night and expected a 2 queen bed room. Instead they get key-cards for a room that is already occupied. They then had to lug all their things back to the front desk to get another room, and then find that the new room is a 1 King bed room. I just signed up for IHG rewards club and expected more than this first impression since I've heard good things about IHG. Now, they have to share the King bed (no the pull out never provides a restfull sleep and I wouldn't subject our child who will be swimming in a meet this entire weekend to a pull out bed.) The reservation says breakfast included and there was no mention of breakfast when they checked in. I'm not sure how this place received 4.1 stars out of 5 on google reviews, but I searched for additional reviews after this experience and see that it only received 2.5 stars of 5 on Trip Advisor, which is closer in line to what we've experienced.  On top of all this, the elevator reeked of pot smoke. Not really an environment I would bring my child into. If it weren't for the 7AM start time for the meet tomorrow, we would have cancelled our reservation and booked at another hotel. I am very disappointed with the experience here at Holiday Inn Express Pearland. If I can give this place half a star I would.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kim V, Manager at Holiday Inn Express Pearland, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>I booked a 2 queen bed room for my husband and child who are attending a swim meet this weekend. They get there at 10 at night and expected a 2 queen bed room. Instead they get key-cards for a room that is already occupied. They then had to lug all their things back to the front desk to get another room, and then find that the new room is a 1 King bed room. I just signed up for IHG rewards club and expected more than this first impression since I've heard good things about IHG. Now, they have to share the King bed (no the pull out never provides a restfull sleep and I wouldn't subject our child who will be swimming in a meet this entire weekend to a pull out bed.) The reservation says breakfast included and there was no mention of breakfast when they checked in. I'm not sure how this place received 4.1 stars out of 5 on google reviews, but I searched for additional reviews after this experience and see that it only received 2.5 stars of 5 on Trip Advisor, which is closer in line to what we've experienced.  On top of all this, the elevator reeked of pot smoke. Not really an environment I would bring my child into. If it weren't for the 7AM start time for the meet tomorrow, we would have cancelled our reservation and booked at another...I booked a 2 queen bed room for my husband and child who are attending a swim meet this weekend. They get there at 10 at night and expected a 2 queen bed room. Instead they get key-cards for a room that is already occupied. They then had to lug all their things back to the front desk to get another room, and then find that the new room is a 1 King bed room. I just signed up for IHG rewards club and expected more than this first impression since I've heard good things about IHG. Now, they have to share the King bed (no the pull out never provides a restfull sleep and I wouldn't subject our child who will be swimming in a meet this entire weekend to a pull out bed.) The reservation says breakfast included and there was no mention of breakfast when they checked in. I'm not sure how this place received 4.1 stars out of 5 on google reviews, but I searched for additional reviews after this experience and see that it only received 2.5 stars of 5 on Trip Advisor, which is closer in line to what we've experienced.  On top of all this, the elevator reeked of pot smoke. Not really an environment I would bring my child into. If it weren't for the 7AM start time for the meet tomorrow, we would have cancelled our reservation and booked at another hotel. I am very disappointed with the experience here at Holiday Inn Express Pearland. If I can give this place half a star I would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r183703598-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>183703598</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Horrible service from the manager herself</t>
+  </si>
+  <si>
+    <t>Very disappointed. First they checked me in a room that Has TV doesnt work, sheets are dirty like they didnt even replace since tge previous customer, in the middle of the night something something was pulling my leg. Somebody died in this room before or something. I asked to change the room in the morning but they said i had to wait til noon...couldnt waste my time so i told the clerk then make sure i get a new room when i come back. When i came back  the clerk said the manager had told her to rent it out. Horrible service. Horrible attitude from the manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Very disappointed. First they checked me in a room that Has TV doesnt work, sheets are dirty like they didnt even replace since tge previous customer, in the middle of the night something something was pulling my leg. Somebody died in this room before or something. I asked to change the room in the morning but they said i had to wait til noon...couldnt waste my time so i told the clerk then make sure i get a new room when i come back. When i came back  the clerk said the manager had told her to rent it out. Horrible service. Horrible attitude from the manager.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r169517020-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
@@ -907,6 +1363,54 @@
     <t>Stayed there on business for a couple of nights.  Got a corporate rate of $84.  The hotel staff was very friendly.  Three people in my group all had issues with hot water.  You had to know the "trick" to get hot water in the shower.  It was plumed backwards, but simply turning the handle the other way was not sufficient.  You had to turn the handle to hot (but on the cold side) then pull to turn on...  The lady at the front desk made it sound like this was a common problem and she knew exactly what I was talking about.The hotel was clean and well kept.  The pool area looked nice, however I did not go outside to visit the area.  My room was clean and nice.  The temperature never got below 73 degrees, though I set it for much lower.  Breakfast was just ok.  Had the usual assortment of cereals, bagels, bisquets.  The eggs were very strange looking, I did hear that the waffels were good.  There was plenty to choose from with each selection, just the basics...For the price it was a good selection.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r164940932-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>164940932</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Shockingly unprepared</t>
+  </si>
+  <si>
+    <t>The one-star rating is only for the superb service under pressure by Dashawnti Cloud. All other aspects deserve negative ratings. We are Priority Club members because our select basketball team travels and stays in this chain. At this location, there was lack of staff and supplies. No towels to distribute Friday, no pull-out sofa bedding and no cinnamon rolls. Broken doors, light fixtures and drawers were also issues shared by us and fellow travelers. The breakfast was extremely limited. The rooms felt a little dirty. Also, no turtle food! We wanted to ask for money back but Dashawnti had done most all she could this stay. We are executing a refund and club points.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Pearland, responded to this reviewResponded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2013</t>
+  </si>
+  <si>
+    <t>The one-star rating is only for the superb service under pressure by Dashawnti Cloud. All other aspects deserve negative ratings. We are Priority Club members because our select basketball team travels and stays in this chain. At this location, there was lack of staff and supplies. No towels to distribute Friday, no pull-out sofa bedding and no cinnamon rolls. Broken doors, light fixtures and drawers were also issues shared by us and fellow travelers. The breakfast was extremely limited. The rooms felt a little dirty. Also, no turtle food! We wanted to ask for money back but Dashawnti had done most all she could this stay. We are executing a refund and club points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r163246371-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>163246371</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>What stands out the most to me was that the staff of this hotel was very helpful and accommodating at every turn. A lot of restaurants not to far away.  Good rooms good breakfast. Nothing to complain about.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>What stands out the most to me was that the staff of this hotel was very helpful and accommodating at every turn. A lot of restaurants not to far away.  Good rooms good breakfast. Nothing to complain about.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r162546057-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -922,9 +1426,6 @@
     <t>Very friendly and helpful staff members and managment. Ashley Mendoza when above and beyond her duties to make sure my family and I were well taking care of. Hotel rooms were clean and very spacious. Everytime something was need the staff was more than happy to help.And the breakfast excellent choices for kids. Our stay couldnt have been any better thank you Holiday Inn and Suties Pearland cant wait to vist again soon.MoreShow less</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>Very friendly and helpful staff members and managment. Ashley Mendoza when above and beyond her duties to make sure my family and I were well taking care of. Hotel rooms were clean and very spacious. Everytime something was need the staff was more than happy to help.And the breakfast excellent choices for kids. Our stay couldnt have been any better thank you Holiday Inn and Suties Pearland cant wait to vist again soon.More</t>
   </si>
   <si>
@@ -973,6 +1474,51 @@
     <t>Stayed only for one night in this hotel. The room was clean and nice, no compaints there. I was on the ground floor and the noise of others coming in and going out through the side entrance was a bit loud in the room, but I could sleep well.The staff is nice and helpful.The hotel is about 25 mins drive from Houston downtown. There is nothing nearby, and unfortunately no bar in the hotel either.Therefore 130$(inc. tax) is a bit high for it in my opinion.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r154315638-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>154315638</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Relaxing stay!! Great location for any need or occasion !!!</t>
+  </si>
+  <si>
+    <t>Stay here on business,really nice staff!! They really handled my every need whatever the need was. The hotel was never unorganized at any point of my stays!! Thanks for making me stay comfortable! I will try me best to make reservation at this location again if my work brings me back to Pearland area again..........MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Kim V, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Stay here on business,really nice staff!! They really handled my every need whatever the need was. The hotel was never unorganized at any point of my stays!! Thanks for making me stay comfortable! I will try me best to make reservation at this location again if my work brings me back to Pearland area again..........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r150553061-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>150553061</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Great location !</t>
+  </si>
+  <si>
+    <t>When traveling to this area, this is the Holiday Inn I like to stay. I find it very quiet and reasonably priced. Sometimes my Garmin takes me to other locations, but I try to avoid the major highways.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>When traveling to this area, this is the Holiday Inn I like to stay. I find it very quiet and reasonably priced. Sometimes my Garmin takes me to other locations, but I try to avoid the major highways.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r150176770-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -988,9 +1534,6 @@
     <t>if u are passing thru texas this property is a quiet place to overnight, there are restaurants nearby and a walmart nearby, the hotel is decent, small , clean and wifi works well. breakfast is good.there is a gym for those who like to sweat it out and a spa. parking is easy since its a small property. also nearby are movie theaters and chinese delivery is available.MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
     <t>if u are passing thru texas this property is a quiet place to overnight, there are restaurants nearby and a walmart nearby, the hotel is decent, small , clean and wifi works well. breakfast is good.there is a gym for those who like to sweat it out and a spa. parking is easy since its a small property. also nearby are movie theaters and chinese delivery is available.More</t>
   </si>
   <si>
@@ -1036,6 +1579,54 @@
     <t>I grew up in Houston and Pearland was just a nice little suburb down the road 30 years ago. WOW, what a difference a few decades make! We stayed at this very nice property overnight after attending a family gathering nearby. The rates were very comparable to other higher level hotels and we were very pleased with our accomodations. The rooms were clean, comfortable, tastefully decorated and the A/C was bone chilling cold. I loved that after a day and evening of sweating in the Houston humidity. The check in was seamless, the clerk friendly and patient, and every staff member we met in the hall greeted us warmly. 4 stars for HIE Pearland Tx!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r131240102-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>131240102</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Clean hotel</t>
+  </si>
+  <si>
+    <t>Most Holiday Inn Express's are very nice and this one is no exception. Clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Chirag S, Director of Sales at Holiday Inn Express Pearland, responded to this reviewResponded June 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2012</t>
+  </si>
+  <si>
+    <t>Most Holiday Inn Express's are very nice and this one is no exception. Clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r129616290-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>129616290</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Never go here</t>
+  </si>
+  <si>
+    <t>I just want to start off by saying that I have never been treated so badly by a hotel then by this one. We booked through priceline "name your own price" and we got stuck here. They said they were full and we took the last room. This is important because we booked a double bed and we got one king (there was three of us) there was no pull out either. The room was a smoking room. I am allergic to smoke and it is just gross that a hotel allows people to smoke in their rooms in general. I go down and talk to the MNG and he tells me he will "spray" the room. (no clue what that does) We couldn't get our money back and they were just plain rude about the whole situation. I don't think a hotel that cost $130 a night should be rude and provide no solution to our problems. Finally my friend asked if they had a roll out bed (they did) and we got that and went to bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I just want to start off by saying that I have never been treated so badly by a hotel then by this one. We booked through priceline "name your own price" and we got stuck here. They said they were full and we took the last room. This is important because we booked a double bed and we got one king (there was three of us) there was no pull out either. The room was a smoking room. I am allergic to smoke and it is just gross that a hotel allows people to smoke in their rooms in general. I go down and talk to the MNG and he tells me he will "spray" the room. (no clue what that does) We couldn't get our money back and they were just plain rude about the whole situation. I don't think a hotel that cost $130 a night should be rude and provide no solution to our problems. Finally my friend asked if they had a roll out bed (they did) and we got that and went to bed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r128665388-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1702,57 @@
     <t>I stayed at this hotel for 3 nights and it was great! Super clean rooms, great staff from maids to manager, and huge selection and variety of breakfast options served. I got a large discount from Priceline but it's worth the regular price rate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r124914907-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>124914907</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Nice place to stay for quick over night visit</t>
+  </si>
+  <si>
+    <t>I booked this room using Priceline's "Name Your Own Price" feature so I was unaware of the hotel's name and exact location before booking however I was able to book the room for $40 a night instead of the listed price of $105. I was visiting the city for a friend of mines daughters birthday party. Upon check-in I was quickly greeted by a friendly staff member and she completed a quick and easy check-in. The hotel room was clean and the bed was super comfortable!!! I must agree with other advisors in that the hotel walls are very thin and I could hear my neighbor bathing his child through the bathroom vents. The vending areas were clean and nicely stocked and the complimentary breakfast was a good extra. The hotel is located across the street from a Wal-Mart and a couple of fast food places however it is far from Pearland's newest attractions that are located off of US Hwy 288.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Chirag S, Director of Sales at Holiday Inn Express Pearland, responded to this reviewResponded February 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2012</t>
+  </si>
+  <si>
+    <t>I booked this room using Priceline's "Name Your Own Price" feature so I was unaware of the hotel's name and exact location before booking however I was able to book the room for $40 a night instead of the listed price of $105. I was visiting the city for a friend of mines daughters birthday party. Upon check-in I was quickly greeted by a friendly staff member and she completed a quick and easy check-in. The hotel room was clean and the bed was super comfortable!!! I must agree with other advisors in that the hotel walls are very thin and I could hear my neighbor bathing his child through the bathroom vents. The vending areas were clean and nicely stocked and the complimentary breakfast was a good extra. The hotel is located across the street from a Wal-Mart and a couple of fast food places however it is far from Pearland's newest attractions that are located off of US Hwy 288.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r121702174-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>121702174</t>
+  </si>
+  <si>
+    <t>12/13/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I travel for business and by far this is the best holiday in express I've been to in 7 years I happily stay again and again they just made me feel at home thanks for the great service James Matzen Jacksonville Florida MoreShow less</t>
+  </si>
+  <si>
+    <t>Chirag S, Director of Sales at Holiday Inn Express Pearland, responded to this reviewResponded January 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2012</t>
+  </si>
+  <si>
+    <t>I travel for business and by far this is the best holiday in express I've been to in 7 years I happily stay again and again they just made me feel at home thanks for the great service James Matzen Jacksonville Florida More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r120972029-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1147,9 +1789,6 @@
     <t>11/07/2011</t>
   </si>
   <si>
-    <t>Great staff</t>
-  </si>
-  <si>
     <t>I slept do well on the comfortable bed. Our luggage did not get to the hotel as we had planned but I was able to go to the nt desk and get toothbrushes and toothpaste. Breakfast was delicious and everything was clean.MoreShow less</t>
   </si>
   <si>
@@ -1180,6 +1819,57 @@
     <t>Below average Holiday inn express. Smallest "suite" I have ever been in. I could hear the people in the room next to me all night. Not that they were making a lot of noise, just very thin wall. Nothing near by (no shops or restaurants) Staff was not great but not bad.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r118970173-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>118970173</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>Pleasant Hotel</t>
+  </si>
+  <si>
+    <t>Very good hotel for the price. Visually appealing decor, both inside and out.  The rooms are very spacious, they obviously had some renovations made becasue the property has a "new" type look and feel to it.  Pleasant staff and would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded October 13, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2011</t>
+  </si>
+  <si>
+    <t>Very good hotel for the price. Visually appealing decor, both inside and out.  The rooms are very spacious, they obviously had some renovations made becasue the property has a "new" type look and feel to it.  Pleasant staff and would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r118607780-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>118607780</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Great property but needs a bit of tweaking!</t>
+  </si>
+  <si>
+    <t>We stayed in this property for one night.  The aquarium in the lobby is beautiful and the staff is nice.  My only complaint is that since I was traveling with my mom who uses a walker, we asked for a handicapped accommodated room because she needs extra room to maneuver.    Although the room had bars to help in the bathroom, there was no seat in the bath for those that can't get in a traditional tub.  Also, the refrigerator was near the front door, which did not allow the walker to get through the space without problems. Between the front door, the bathroom door and the refrigerator we had a lot of difficulty.MoreShow less</t>
+  </si>
+  <si>
+    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded September 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2011</t>
+  </si>
+  <si>
+    <t>We stayed in this property for one night.  The aquarium in the lobby is beautiful and the staff is nice.  My only complaint is that since I was traveling with my mom who uses a walker, we asked for a handicapped accommodated room because she needs extra room to maneuver.    Although the room had bars to help in the bathroom, there was no seat in the bath for those that can't get in a traditional tub.  Also, the refrigerator was near the front door, which did not allow the walker to get through the space without problems. Between the front door, the bathroom door and the refrigerator we had a lot of difficulty.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r118228472-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1195,9 +1885,6 @@
     <t>If anyone is ever in the Pearland area this is the best hotel to stay in!  Rooms are large, bed is fantastic, breakfast was really good.  Very clean hotel looks like new, staff keeps well maintained.  The aquarium in the front lobby is beautiful!!  One of the nicest things about this hotel is the staff!  They are super nice greeted upon check in with a friendly smile!  Felt like I was the most important person to them even though they had many other guest.  But I did notice they treated everyone who walked in the door with a warm hello and made them feel as welcome as I was.  Have a great pool!  Very clean and nice area to enjoy and relax after a long day.  Highly recommend this hotel to anyone going to this area!!MoreShow less</t>
   </si>
   <si>
-    <t>September 2011</t>
-  </si>
-  <si>
     <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded September 19, 2011</t>
   </si>
   <si>
@@ -1222,9 +1909,6 @@
     <t>Superb guest service and extraordinary staff and especially the manager and the sales guy were so sweet and so friendly at the guest reception.The aquarium in the lobby is amazing and beautiful. Great and well maintained hotel with everything inside the room very new, and sparkling clean. And the beds are so comfortable and relaxing.This has been the best Holiday Inn Express that i have ever seen everything perfect and in place.Very Convenient from Hobby Airport. I got much more for the price that i paid. Surely i will come back no hunting for other hotels in the area.  'SIMPLY OUTSTANDING'MoreShow less</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
     <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded September 28, 2011</t>
   </si>
   <si>
@@ -1261,6 +1945,54 @@
     <t>I stayed one night at this hotel.  Upon check-in I was given a gift bag with a bottle of water and a snack.  I thought it was a nice gesture.  I stayed in a mini suite which was nicely appointed.  It had a seating area and also a fridge &amp; microwave in the room.  The hotel appeared to be fairly new and was maintained very well.  The room and hotel premises was clean,  The hotel provides a free continental breakfast.  It wasn't anything special, but it was nice to be able to get coffee and fruit without leaving the premises.  I would definitely recommend this property.  There is construction on the road in front of the hotel, but this was a minor inconvenience.  The hotel is located close to a major thoroughfare.  Eating establishments were also in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r84249652-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>84249652</t>
+  </si>
+  <si>
+    <t>10/20/2010</t>
+  </si>
+  <si>
+    <t>Remodeled since Hurricane Ike;.</t>
+  </si>
+  <si>
+    <t>The hotel is lovely; the staff was helpful; breakfast was very good.  We arrived late and the rollaway bed was in our room and was made up.  The price was right and we had a very pleasant experience.  We would recommend this hotel to anyone staying in the Pearland-Houston area.Carolyn Smith, Austin, TXMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 11, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2010</t>
+  </si>
+  <si>
+    <t>The hotel is lovely; the staff was helpful; breakfast was very good.  We arrived late and the rollaway bed was in our room and was made up.  The price was right and we had a very pleasant experience.  We would recommend this hotel to anyone staying in the Pearland-Houston area.Carolyn Smith, Austin, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r64071657-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>64071657</t>
+  </si>
+  <si>
+    <t>05/13/2010</t>
+  </si>
+  <si>
+    <t>Awesome Customer Service</t>
+  </si>
+  <si>
+    <t>I travel all year round and have never received the customer service that I did at this hotel. I was very impressed with the size of the rooms and the cleanliness of them. The aquarium they have in the front lobby is amazing. I highly recommend this hotel to anyone going to Pearland.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>I travel all year round and have never received the customer service that I did at this hotel. I was very impressed with the size of the rooms and the cleanliness of them. The aquarium they have in the front lobby is amazing. I highly recommend this hotel to anyone going to Pearland.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r38203422-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1277,12 +2009,6 @@
   </si>
   <si>
     <t>August 2009</t>
-  </si>
-  <si>
-    <t>mimibrewer, General Manager at Holiday Inn Express Pearland, responded to this reviewResponded November 11, 2010</t>
-  </si>
-  <si>
-    <t>Responded November 11, 2010</t>
   </si>
   <si>
     <t>My husband and I went August 14 to a family going away party for our grandson. Our daughter made reservations at Holiday Inn as there isn't enough room for everyone at the house plus my husband had had shoulder surgery and needed a quiet place with a king size bed. We got the king size bed but at 2:52AM all hell broke loose in the hallway on our floor. There was a party......at least 20 people roving the halls screaming and yelling. They descended to the pool at 3:15 AM (which was supposed to close at 11:00PM ) with beer coolers where they proceeded to drink and party til 4:45AM  , then back to the halls  of the hotel screaming and yelling until 5:30AM.. Did we call the desk clerk ? Only five or six times to a clerk who was unwilling or too inexperienced to handle the situation. We asked her to call the manager which she claimed she did but we never heard from one. After complaining the next morning our room was comped. As we spoke to the front desk manager numerous other guests spoke up and complained about the problem . Were there rooms comped ? Probably not unless they asked for it. The personnel  is in very bad need of training as is the management. We spent the next night at the Best Western across the street .....not as nice but at least quiet and...My husband and I went August 14 to a family going away party for our grandson. Our daughter made reservations at Holiday Inn as there isn't enough room for everyone at the house plus my husband had had shoulder surgery and needed a quiet place with a king size bed. We got the king size bed but at 2:52AM all hell broke loose in the hallway on our floor. There was a party......at least 20 people roving the halls screaming and yelling. They descended to the pool at 3:15 AM (which was supposed to close at 11:00PM ) with beer coolers where they proceeded to drink and party til 4:45AM  , then back to the halls  of the hotel screaming and yelling until 5:30AM.. Did we call the desk clerk ? Only five or six times to a clerk who was unwilling or too inexperienced to handle the situation. We asked her to call the manager which she claimed she did but we never heard from one. After complaining the next morning our room was comped. As we spoke to the front desk manager numerous other guests spoke up and complained about the problem . Were there rooms comped ? Probably not unless they asked for it. The personnel  is in very bad need of training as is the management. We spent the next night at the Best Western across the street .....not as nice but at least quiet and seemed to have a better trained staff.More</t>
@@ -1342,6 +2068,24 @@
   </si>
   <si>
     <t>We checked in the hotel late (around 1am) and the room which we were checked into was not cleaned.  We called the front desk and ask them to move us.  They then put us on the smoking floor, which we had requested to be away from.  The room which we moved to had no soap or towels.  We again had to go down stairs to get them from the front desk.  We asked to speak to the manger in the morning and they said he was off and would not return to property for the next 3 to 4 days.  Awful service and would NOT recommend this hotel to anyone who is wanting to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d293238-r2424895-Holiday_Inn_Express_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>2424895</t>
+  </si>
+  <si>
+    <t>08/05/2004</t>
+  </si>
+  <si>
+    <t>Impressive</t>
+  </si>
+  <si>
+    <t>Although this is still a Holiday Inn Express, it is probably the nicest HIE we've been in.  Very upscale decor for a HIE (excellent landscaping, marble throughout, etc.).  Must have just been built (we were there mid July 2004).  Very friendly, courteous staff.  Fairly centrally located between downtown Houston, Galveston, &amp; NASA areas.  If you need to stay at a HIE type of place in the Houston area, you won't go wrong here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Although this is still a Holiday Inn Express, it is probably the nicest HIE we've been in.  Very upscale decor for a HIE (excellent landscaping, marble throughout, etc.).  Must have just been built (we were there mid July 2004).  Very friendly, courteous staff.  Fairly centrally located between downtown Houston, Galveston, &amp; NASA areas.  If you need to stay at a HIE type of place in the Houston area, you won't go wrong here.More</t>
   </si>
 </sst>
 </file>
@@ -1884,19 +2628,25 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1912,34 +2662,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1994,7 +2744,7 @@
         <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>69</v>
@@ -2002,29 +2752,29 @@
       <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2040,7 +2790,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2049,25 +2799,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2078,14 +2828,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>80</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2101,56 +2847,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2166,56 +2908,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -2231,7 +2975,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2240,25 +2984,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2270,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -2292,58 +3036,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" t="s">
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>111</v>
       </c>
-      <c r="K9" t="s">
+      <c r="X9" t="s">
         <v>112</v>
       </c>
-      <c r="L9" t="s">
+      <c r="Y9" t="s">
         <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>116</v>
-      </c>
-      <c r="X9" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2359,58 +3097,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
         <v>120</v>
-      </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -2426,52 +3158,56 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>126</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>131</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="X11" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -2487,52 +3223,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
         <v>133</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>134</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>135</v>
       </c>
-      <c r="K12" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>131</v>
-      </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
         <v>138</v>
-      </c>
-      <c r="X12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -2548,58 +3288,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
         <v>141</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>142</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>143</v>
       </c>
-      <c r="K13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" t="s">
-        <v>145</v>
-      </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2615,58 +3349,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
         <v>148</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>149</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>150</v>
       </c>
-      <c r="K14" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" t="s">
-        <v>152</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="X14" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -2682,34 +3410,34 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
         <v>155</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>156</v>
       </c>
-      <c r="J15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2721,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -2743,41 +3471,43 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
         <v>164</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>165</v>
       </c>
-      <c r="J16" t="s">
+      <c r="O16" t="s">
         <v>166</v>
       </c>
-      <c r="K16" t="s">
-        <v>167</v>
-      </c>
-      <c r="L16" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>160</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2786,13 +3516,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
         <v>169</v>
-      </c>
-      <c r="X16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2808,56 +3538,58 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>171</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>172</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>173</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>174</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>175</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>176</v>
-      </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="X17" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -2873,58 +3605,56 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>178</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>179</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>180</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>181</v>
       </c>
-      <c r="L18" t="s">
-        <v>182</v>
-      </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
         <v>184</v>
-      </c>
-      <c r="X18" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -2940,56 +3670,52 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
         <v>187</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>188</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>189</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>190</v>
       </c>
-      <c r="L19" t="s">
-        <v>191</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>183</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="X19" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
@@ -3005,58 +3731,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
         <v>193</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>194</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>195</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>196</v>
       </c>
-      <c r="L20" t="s">
-        <v>197</v>
-      </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -3072,58 +3792,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
         <v>202</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
         <v>203</v>
       </c>
-      <c r="J21" t="s">
+      <c r="X21" t="s">
         <v>204</v>
       </c>
-      <c r="K21" t="s">
+      <c r="Y21" t="s">
         <v>205</v>
-      </c>
-      <c r="L21" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
-      <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>207</v>
-      </c>
-      <c r="X21" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22">
@@ -3139,41 +3853,43 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
         <v>210</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>211</v>
-      </c>
-      <c r="J22" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" t="s">
-        <v>214</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>215</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3182,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
@@ -3204,7 +3920,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3213,49 +3929,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
@@ -3271,58 +3987,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>227</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>111</v>
+      </c>
+      <c r="X24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y24" t="s">
         <v>228</v>
-      </c>
-      <c r="J24" t="s">
-        <v>229</v>
-      </c>
-      <c r="K24" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>232</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
-        <v>233</v>
-      </c>
-      <c r="X24" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -3338,7 +4048,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3347,53 +4057,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="X25" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
@@ -3409,62 +4115,52 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="s">
         <v>244</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>245</v>
-      </c>
-      <c r="J26" t="s">
-        <v>246</v>
-      </c>
-      <c r="K26" t="s">
-        <v>247</v>
-      </c>
-      <c r="L26" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>249</v>
-      </c>
-      <c r="O26" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>233</v>
-      </c>
-      <c r="X26" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="27">
@@ -3480,7 +4176,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3489,38 +4185,32 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3529,13 +4219,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X27" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
@@ -3551,7 +4241,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3560,22 +4250,22 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
@@ -3590,13 +4280,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="X28" t="s">
-        <v>264</v>
+        <v>112</v>
       </c>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
@@ -3612,7 +4302,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3621,37 +4311,33 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3661,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="X29" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -3683,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3692,16 +4378,16 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -3710,19 +4396,13 @@
         <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3732,13 +4412,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="X30" t="s">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="Y30" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
@@ -3754,7 +4434,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3763,53 +4443,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
         <v>4</v>
       </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="X31" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="Y31" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -3825,7 +4501,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3834,38 +4510,32 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3874,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="X32" t="s">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
@@ -3896,7 +4566,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3905,53 +4575,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
       </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="X33" t="s">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -3967,7 +4633,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3976,49 +4642,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>94</v>
+      </c>
       <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="X34" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
@@ -4034,7 +4700,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4043,53 +4709,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y35" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
@@ -4105,7 +4767,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4114,37 +4776,33 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>325</v>
-      </c>
-      <c r="O36" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4154,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="X36" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
@@ -4176,7 +4834,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4185,35 +4843,29 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s">
-        <v>78</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>5</v>
       </c>
@@ -4225,13 +4877,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="X37" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="Y37" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38">
@@ -4247,7 +4899,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4256,19 +4908,19 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s"/>
       <c r="O38" t="s"/>
@@ -4282,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="X38" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -4304,7 +4956,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4313,53 +4965,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="X39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
@@ -4375,7 +5023,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4384,49 +5032,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J40" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
       <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="X40" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="Y40" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
@@ -4442,7 +5090,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4451,43 +5099,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="X41" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="Y41" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42">
@@ -4503,7 +5157,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4512,49 +5166,53 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>355</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="X42" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Y42" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
@@ -4570,7 +5228,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4579,53 +5237,43 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
+        <v>356</v>
+      </c>
+      <c r="X43" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y43" t="s">
         <v>373</v>
-      </c>
-      <c r="X43" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="44">
@@ -4641,7 +5289,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4650,25 +5298,25 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4677,9 +5325,11 @@
         <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -4688,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="X44" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="Y44" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
@@ -4710,7 +5360,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4719,36 +5369,38 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="J45" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="K45" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4757,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="X45" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="Y45" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46">
@@ -4779,7 +5431,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4788,31 +5440,35 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="J46" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="K46" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
       <c r="S46" t="n">
         <v>5</v>
       </c>
@@ -4824,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="X46" t="s">
-        <v>407</v>
+        <v>112</v>
       </c>
       <c r="Y46" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47">
@@ -4846,7 +5502,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4855,53 +5511,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="J47" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K47" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>1</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="X47" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="Y47" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48">
@@ -4917,7 +5563,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4926,41 +5572,53 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="J48" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="O48" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>407</v>
+      </c>
+      <c r="X48" t="s">
+        <v>408</v>
+      </c>
       <c r="Y48" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
@@ -4976,7 +5634,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4985,34 +5643,30 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="J49" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="K49" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="L49" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
-      <c r="N49" t="s">
-        <v>430</v>
-      </c>
-      <c r="O49" t="s">
-        <v>78</v>
-      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -5024,10 +5678,2356 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>415</v>
+      </c>
+      <c r="X49" t="s">
+        <v>416</v>
+      </c>
       <c r="Y49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>418</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>419</v>
+      </c>
+      <c r="J50" t="s">
+        <v>420</v>
+      </c>
+      <c r="K50" t="s">
+        <v>421</v>
+      </c>
+      <c r="L50" t="s">
+        <v>422</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>423</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>424</v>
+      </c>
+      <c r="X50" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>427</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>428</v>
+      </c>
+      <c r="J51" t="s">
+        <v>429</v>
+      </c>
+      <c r="K51" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" t="s">
         <v>431</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>423</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>432</v>
+      </c>
+      <c r="X51" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>435</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>436</v>
+      </c>
+      <c r="J52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K52" t="s">
+        <v>438</v>
+      </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>423</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>440</v>
+      </c>
+      <c r="X52" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" t="s">
+        <v>445</v>
+      </c>
+      <c r="K53" t="s">
+        <v>446</v>
+      </c>
+      <c r="L53" t="s">
+        <v>447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>449</v>
+      </c>
+      <c r="X53" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>453</v>
+      </c>
+      <c r="J54" t="s">
+        <v>454</v>
+      </c>
+      <c r="K54" t="s">
+        <v>455</v>
+      </c>
+      <c r="L54" t="s">
+        <v>456</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>457</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>432</v>
+      </c>
+      <c r="X54" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>459</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>460</v>
+      </c>
+      <c r="J55" t="s">
+        <v>461</v>
+      </c>
+      <c r="K55" t="s">
+        <v>462</v>
+      </c>
+      <c r="L55" t="s">
+        <v>463</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>432</v>
+      </c>
+      <c r="X55" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>465</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>466</v>
+      </c>
+      <c r="J56" t="s">
+        <v>467</v>
+      </c>
+      <c r="K56" t="s">
+        <v>468</v>
+      </c>
+      <c r="L56" t="s">
+        <v>469</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>470</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>471</v>
+      </c>
+      <c r="X56" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>474</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>475</v>
+      </c>
+      <c r="J57" t="s">
+        <v>476</v>
+      </c>
+      <c r="K57" t="s">
+        <v>477</v>
+      </c>
+      <c r="L57" t="s">
+        <v>478</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>432</v>
+      </c>
+      <c r="X57" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>481</v>
+      </c>
+      <c r="J58" t="s">
+        <v>482</v>
+      </c>
+      <c r="K58" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>485</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>486</v>
+      </c>
+      <c r="X58" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>488</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>489</v>
+      </c>
+      <c r="J59" t="s">
+        <v>490</v>
+      </c>
+      <c r="K59" t="s">
+        <v>491</v>
+      </c>
+      <c r="L59" t="s">
+        <v>492</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>493</v>
+      </c>
+      <c r="O59" t="s">
+        <v>166</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>432</v>
+      </c>
+      <c r="X59" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>495</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>496</v>
+      </c>
+      <c r="J60" t="s">
+        <v>497</v>
+      </c>
+      <c r="K60" t="s">
+        <v>498</v>
+      </c>
+      <c r="L60" t="s">
+        <v>499</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>166</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>432</v>
+      </c>
+      <c r="X60" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>501</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>502</v>
+      </c>
+      <c r="J61" t="s">
+        <v>503</v>
+      </c>
+      <c r="K61" t="s">
+        <v>504</v>
+      </c>
+      <c r="L61" t="s">
+        <v>505</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>506</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>111</v>
+      </c>
+      <c r="X61" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>508</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>509</v>
+      </c>
+      <c r="J62" t="s">
+        <v>510</v>
+      </c>
+      <c r="K62" t="s">
+        <v>511</v>
+      </c>
+      <c r="L62" t="s">
+        <v>512</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>513</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>111</v>
+      </c>
+      <c r="X62" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>515</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J63" t="s">
+        <v>517</v>
+      </c>
+      <c r="K63" t="s">
+        <v>518</v>
+      </c>
+      <c r="L63" t="s">
+        <v>519</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>520</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>521</v>
+      </c>
+      <c r="X63" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>525</v>
+      </c>
+      <c r="J64" t="s">
+        <v>526</v>
+      </c>
+      <c r="K64" t="s">
+        <v>527</v>
+      </c>
+      <c r="L64" t="s">
+        <v>528</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>529</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>111</v>
+      </c>
+      <c r="X64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>531</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65" t="s">
+        <v>533</v>
+      </c>
+      <c r="K65" t="s">
+        <v>534</v>
+      </c>
+      <c r="L65" t="s">
+        <v>535</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>536</v>
+      </c>
+      <c r="X65" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>539</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66" t="s">
+        <v>541</v>
+      </c>
+      <c r="K66" t="s">
+        <v>542</v>
+      </c>
+      <c r="L66" t="s">
+        <v>543</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>544</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>545</v>
+      </c>
+      <c r="X66" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>548</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>549</v>
+      </c>
+      <c r="J67" t="s">
+        <v>550</v>
+      </c>
+      <c r="K67" t="s">
+        <v>551</v>
+      </c>
+      <c r="L67" t="s">
+        <v>552</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>553</v>
+      </c>
+      <c r="X67" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>556</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>557</v>
+      </c>
+      <c r="J68" t="s">
+        <v>558</v>
+      </c>
+      <c r="K68" t="s">
+        <v>559</v>
+      </c>
+      <c r="L68" t="s">
+        <v>560</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>561</v>
+      </c>
+      <c r="O68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>562</v>
+      </c>
+      <c r="X68" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>565</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>566</v>
+      </c>
+      <c r="J69" t="s">
+        <v>567</v>
+      </c>
+      <c r="K69" t="s">
+        <v>568</v>
+      </c>
+      <c r="L69" t="s">
+        <v>569</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>570</v>
+      </c>
+      <c r="X69" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>574</v>
+      </c>
+      <c r="J70" t="s">
+        <v>575</v>
+      </c>
+      <c r="K70" t="s">
+        <v>576</v>
+      </c>
+      <c r="L70" t="s">
+        <v>577</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>578</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>579</v>
+      </c>
+      <c r="X70" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>582</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>583</v>
+      </c>
+      <c r="J71" t="s">
+        <v>584</v>
+      </c>
+      <c r="K71" t="s">
+        <v>455</v>
+      </c>
+      <c r="L71" t="s">
+        <v>585</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>586</v>
+      </c>
+      <c r="X71" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>589</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>590</v>
+      </c>
+      <c r="J72" t="s">
+        <v>591</v>
+      </c>
+      <c r="K72" t="s">
+        <v>592</v>
+      </c>
+      <c r="L72" t="s">
+        <v>593</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>578</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>586</v>
+      </c>
+      <c r="X72" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>595</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>596</v>
+      </c>
+      <c r="J73" t="s">
+        <v>597</v>
+      </c>
+      <c r="K73" t="s">
+        <v>598</v>
+      </c>
+      <c r="L73" t="s">
+        <v>599</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>600</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>601</v>
+      </c>
+      <c r="X73" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>604</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>605</v>
+      </c>
+      <c r="J74" t="s">
+        <v>606</v>
+      </c>
+      <c r="K74" t="s">
+        <v>607</v>
+      </c>
+      <c r="L74" t="s">
+        <v>608</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>600</v>
+      </c>
+      <c r="O74" t="s">
+        <v>70</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>609</v>
+      </c>
+      <c r="X74" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>612</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>613</v>
+      </c>
+      <c r="J75" t="s">
+        <v>614</v>
+      </c>
+      <c r="K75" t="s">
+        <v>615</v>
+      </c>
+      <c r="L75" t="s">
+        <v>616</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>600</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>617</v>
+      </c>
+      <c r="X75" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>620</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>621</v>
+      </c>
+      <c r="J76" t="s">
+        <v>622</v>
+      </c>
+      <c r="K76" t="s">
+        <v>623</v>
+      </c>
+      <c r="L76" t="s">
+        <v>624</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>520</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>625</v>
+      </c>
+      <c r="X76" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>628</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>629</v>
+      </c>
+      <c r="J77" t="s">
+        <v>630</v>
+      </c>
+      <c r="K77" t="s">
+        <v>631</v>
+      </c>
+      <c r="L77" t="s">
+        <v>632</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>633</v>
+      </c>
+      <c r="O77" t="s">
+        <v>166</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>634</v>
+      </c>
+      <c r="X77" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>637</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>638</v>
+      </c>
+      <c r="J78" t="s">
+        <v>639</v>
+      </c>
+      <c r="K78" t="s">
+        <v>640</v>
+      </c>
+      <c r="L78" t="s">
+        <v>641</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>642</v>
+      </c>
+      <c r="O78" t="s">
+        <v>70</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>643</v>
+      </c>
+      <c r="X78" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>646</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>647</v>
+      </c>
+      <c r="J79" t="s">
+        <v>648</v>
+      </c>
+      <c r="K79" t="s">
+        <v>649</v>
+      </c>
+      <c r="L79" t="s">
+        <v>650</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>651</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>643</v>
+      </c>
+      <c r="X79" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>653</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>654</v>
+      </c>
+      <c r="J80" t="s">
+        <v>655</v>
+      </c>
+      <c r="K80" t="s">
+        <v>656</v>
+      </c>
+      <c r="L80" t="s">
+        <v>657</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>658</v>
+      </c>
+      <c r="O80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>643</v>
+      </c>
+      <c r="X80" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>660</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>661</v>
+      </c>
+      <c r="J81" t="s">
+        <v>662</v>
+      </c>
+      <c r="K81" t="s">
+        <v>663</v>
+      </c>
+      <c r="L81" t="s">
+        <v>664</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>665</v>
+      </c>
+      <c r="O81" t="s">
+        <v>166</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>667</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>668</v>
+      </c>
+      <c r="J82" t="s">
+        <v>669</v>
+      </c>
+      <c r="K82" t="s">
+        <v>670</v>
+      </c>
+      <c r="L82" t="s">
+        <v>671</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>672</v>
+      </c>
+      <c r="O82" t="s">
+        <v>70</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>49178</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>674</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>675</v>
+      </c>
+      <c r="J83" t="s">
+        <v>676</v>
+      </c>
+      <c r="K83" t="s">
+        <v>677</v>
+      </c>
+      <c r="L83" t="s">
+        <v>678</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>111</v>
+      </c>
+      <c r="X83" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
